--- a/Listado ART.xlsx
+++ b/Listado ART.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyecto Uipath\Descarga_Alicuota_ART\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB6CC28-3010-42F6-93BF-F9D7F524C6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F73693E-103B-403D-9EA0-E93EDF10EA95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="20">
   <si>
     <t>Nro</t>
   </si>
@@ -95,6 +95,12 @@
   </si>
   <si>
     <t>ART</t>
+  </si>
+  <si>
+    <t>Ubicación de descarga de los archivos, si esta vacío se guarda en la ubicación de la ventana emergente</t>
+  </si>
+  <si>
+    <t>C:\Users\Agustin Bustos\Desktop\Nueva carpeta\</t>
   </si>
 </sst>
 </file>
@@ -190,1375 +196,6 @@
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Hoja1"/>
-      <sheetName val="Hoja2"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="J2" t="str">
-            <v>CUIT AFIP</v>
-          </cell>
-          <cell r="K2" t="str">
-            <v>CUIT Contrib</v>
-          </cell>
-          <cell r="L2" t="str">
-            <v>Clave</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="J3">
-            <v>27061302838</v>
-          </cell>
-          <cell r="K3">
-            <v>27061302838</v>
-          </cell>
-          <cell r="L3" t="str">
-            <v>Acostadelia101</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="J4">
-            <v>23183086499</v>
-          </cell>
-          <cell r="K4">
-            <v>30709419567</v>
-          </cell>
-          <cell r="L4" t="str">
-            <v>Horacio310</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="J5">
-            <v>20203385197</v>
-          </cell>
-          <cell r="K5">
-            <v>20203385197</v>
-          </cell>
-          <cell r="L5" t="str">
-            <v>JCAmarilla2272</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="J6">
-            <v>20170395167</v>
-          </cell>
-          <cell r="K6">
-            <v>30592932446</v>
-          </cell>
-          <cell r="L6" t="str">
-            <v>Hugohope209</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="J7">
-            <v>20114794083</v>
-          </cell>
-          <cell r="K7">
-            <v>30708553715</v>
-          </cell>
-          <cell r="L7" t="str">
-            <v>Victordf2022</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="J8">
-            <v>20208992032</v>
-          </cell>
-          <cell r="K8">
-            <v>20208992032</v>
-          </cell>
-          <cell r="L8" t="str">
-            <v>ASTgerardo22</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="J9">
-            <v>20175255819</v>
-          </cell>
-          <cell r="K9">
-            <v>20175255819</v>
-          </cell>
-          <cell r="L9" t="str">
-            <v>Crispin2022</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="J10">
-            <v>23183086499</v>
-          </cell>
-          <cell r="K10">
-            <v>23183086499</v>
-          </cell>
-          <cell r="L10" t="str">
-            <v>Horacio310</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="J11">
-            <v>20416948926</v>
-          </cell>
-          <cell r="K11">
-            <v>20416948926</v>
-          </cell>
-          <cell r="L11" t="str">
-            <v>Beitia2022</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="J12">
-            <v>20398190727</v>
-          </cell>
-          <cell r="K12">
-            <v>20398190727</v>
-          </cell>
-          <cell r="L12" t="str">
-            <v>Unaibeitia207</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="J13">
-            <v>20246008109</v>
-          </cell>
-          <cell r="K13">
-            <v>20246008109</v>
-          </cell>
-          <cell r="L13" t="str">
-            <v>L@rrygrb209</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="J14">
-            <v>20168291281</v>
-          </cell>
-          <cell r="K14">
-            <v>20168291281</v>
-          </cell>
-          <cell r="L14" t="str">
-            <v>busTos1964</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="J15">
-            <v>20147130202</v>
-          </cell>
-          <cell r="K15">
-            <v>30650940667</v>
-          </cell>
-          <cell r="L15" t="str">
-            <v>Martinb202</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="J16">
-            <v>20147130202</v>
-          </cell>
-          <cell r="K16">
-            <v>20147130202</v>
-          </cell>
-          <cell r="L16" t="str">
-            <v>Martinb202</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="J17">
-            <v>27148268105</v>
-          </cell>
-          <cell r="K17">
-            <v>27148268105</v>
-          </cell>
-          <cell r="L17" t="str">
-            <v>Gracielac276</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="J18">
-            <v>27261827366</v>
-          </cell>
-          <cell r="K18">
-            <v>27261827366</v>
-          </cell>
-          <cell r="L18" t="str">
-            <v>CarballoG12</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="J19">
-            <v>23149462074</v>
-          </cell>
-          <cell r="K19">
-            <v>30707912223</v>
-          </cell>
-          <cell r="L19" t="str">
-            <v>Gabriela2023</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="J20">
-            <v>20082750488</v>
-          </cell>
-          <cell r="K20">
-            <v>20082750488</v>
-          </cell>
-          <cell r="L20" t="str">
-            <v>CastroC210</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="J21">
-            <v>20303980378</v>
-          </cell>
-          <cell r="K21">
-            <v>20303980378</v>
-          </cell>
-          <cell r="L21" t="str">
-            <v>Sinclair.208</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="J22">
-            <v>20277690323</v>
-          </cell>
-          <cell r="K22">
-            <v>20277690323</v>
-          </cell>
-          <cell r="L22" t="str">
-            <v>Julian79</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="J23">
-            <v>20174123072</v>
-          </cell>
-          <cell r="K23">
-            <v>30672372697</v>
-          </cell>
-          <cell r="L23" t="str">
-            <v>Carlos1510</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="J24">
-            <v>27222731416</v>
-          </cell>
-          <cell r="K24">
-            <v>30712026797</v>
-          </cell>
-          <cell r="L24" t="str">
-            <v>Nonona2022</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="J25">
-            <v>23351897074</v>
-          </cell>
-          <cell r="K25">
-            <v>30715085409</v>
-          </cell>
-          <cell r="L25" t="str">
-            <v>Lucila2022</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="J26">
-            <v>27109797257</v>
-          </cell>
-          <cell r="K26">
-            <v>30717059111</v>
-          </cell>
-          <cell r="L26" t="str">
-            <v>Olgascotto279</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="J27">
-            <v>27171709925</v>
-          </cell>
-          <cell r="K27">
-            <v>27171709925</v>
-          </cell>
-          <cell r="L27" t="str">
-            <v>Coronasm276</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="J28">
-            <v>20208993462</v>
-          </cell>
-          <cell r="K28">
-            <v>20208993462</v>
-          </cell>
-          <cell r="L28" t="str">
-            <v>corrales46</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="J29">
-            <v>20168291680</v>
-          </cell>
-          <cell r="K29">
-            <v>20168291680</v>
-          </cell>
-          <cell r="L29" t="str">
-            <v>Luisc30001</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="J30">
-            <v>20114794083</v>
-          </cell>
-          <cell r="K30">
-            <v>30672355393</v>
-          </cell>
-          <cell r="L30" t="str">
-            <v>Victordf2022</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="J31">
-            <v>27055761685</v>
-          </cell>
-          <cell r="K31">
-            <v>27055761685</v>
-          </cell>
-          <cell r="L31" t="str">
-            <v>AngelaC275</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="J32">
-            <v>23267800499</v>
-          </cell>
-          <cell r="K32">
-            <v>23267800499</v>
-          </cell>
-          <cell r="L32" t="str">
-            <v>diego10</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="J33">
-            <v>23051636864</v>
-          </cell>
-          <cell r="K33">
-            <v>23051636864</v>
-          </cell>
-          <cell r="L33" t="str">
-            <v>LUCILA10</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="J34">
-            <v>27201178776</v>
-          </cell>
-          <cell r="K34">
-            <v>30717537153</v>
-          </cell>
-          <cell r="L34" t="str">
-            <v>Monicaszy11</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="J35">
-            <v>20149462601</v>
-          </cell>
-          <cell r="K35">
-            <v>30709431834</v>
-          </cell>
-          <cell r="L35" t="str">
-            <v>Marcelo203</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="J36">
-            <v>20175255819</v>
-          </cell>
-          <cell r="K36">
-            <v>30568711420</v>
-          </cell>
-          <cell r="L36" t="str">
-            <v>Crispin2022</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="J37">
-            <v>20361947674</v>
-          </cell>
-          <cell r="K37">
-            <v>20361947674</v>
-          </cell>
-          <cell r="L37" t="str">
-            <v>Cesare2021</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="J38">
-            <v>20149466356</v>
-          </cell>
-          <cell r="K38">
-            <v>20149466356</v>
-          </cell>
-          <cell r="L38" t="str">
-            <v>REEnriquez208</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="J39">
-            <v>20169933031</v>
-          </cell>
-          <cell r="K39">
-            <v>20169933031</v>
-          </cell>
-          <cell r="L39" t="str">
-            <v>Estudio2022</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="J40">
-            <v>20168296011</v>
-          </cell>
-          <cell r="K40">
-            <v>33653520439</v>
-          </cell>
-          <cell r="L40" t="str">
-            <v>Jcmayol2022</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="J41">
-            <v>20170395167</v>
-          </cell>
-          <cell r="K41">
-            <v>30672356381</v>
-          </cell>
-          <cell r="L41" t="str">
-            <v>Hugohope209</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="J42">
-            <v>27182653972</v>
-          </cell>
-          <cell r="K42">
-            <v>27182653972</v>
-          </cell>
-          <cell r="L42" t="str">
-            <v>Chabuca273</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="J43">
-            <v>20168291834</v>
-          </cell>
-          <cell r="K43">
-            <v>20168291834</v>
-          </cell>
-          <cell r="L43" t="str">
-            <v>TOfi04041965</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="J44">
-            <v>20133762761</v>
-          </cell>
-          <cell r="K44">
-            <v>20133762761</v>
-          </cell>
-          <cell r="L44" t="str">
-            <v>Cferreyra60</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="J45">
-            <v>20327623967</v>
-          </cell>
-          <cell r="K45">
-            <v>20327623967</v>
-          </cell>
-          <cell r="L45" t="str">
-            <v>Candresferreyra86</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="J46">
-            <v>23342751644</v>
-          </cell>
-          <cell r="K46">
-            <v>23342751644</v>
-          </cell>
-          <cell r="L46" t="str">
-            <v>CVFerreyra89</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="J47">
-            <v>20170394845</v>
-          </cell>
-          <cell r="K47">
-            <v>20170394845</v>
-          </cell>
-          <cell r="L47" t="str">
-            <v>Mferreyra64</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="J48">
-            <v>23173121539</v>
-          </cell>
-          <cell r="K48">
-            <v>30715347926</v>
-          </cell>
-          <cell r="L48" t="str">
-            <v>Posadas4601</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="J49">
-            <v>20100325048</v>
-          </cell>
-          <cell r="K49">
-            <v>30708878762</v>
-          </cell>
-          <cell r="L49" t="str">
-            <v>Jouliae1356</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="J50">
-            <v>20100325048</v>
-          </cell>
-          <cell r="K50">
-            <v>30708626348</v>
-          </cell>
-          <cell r="L50" t="str">
-            <v>Jouliae1356</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="J51">
-            <v>20175255819</v>
-          </cell>
-          <cell r="K51">
-            <v>30701299538</v>
-          </cell>
-          <cell r="L51" t="str">
-            <v>Crispin2022</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="J52">
-            <v>20203387882</v>
-          </cell>
-          <cell r="K52">
-            <v>20203387882</v>
-          </cell>
-          <cell r="L52" t="str">
-            <v>FREAZA01</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="J53">
-            <v>20149466356</v>
-          </cell>
-          <cell r="K53">
-            <v>30710404131</v>
-          </cell>
-          <cell r="L53" t="str">
-            <v>REEnriquez208</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="J54">
-            <v>27111482476</v>
-          </cell>
-          <cell r="K54">
-            <v>27111482476</v>
-          </cell>
-          <cell r="L54" t="str">
-            <v>DORA2716</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="J55">
-            <v>20170395167</v>
-          </cell>
-          <cell r="K55">
-            <v>20170395167</v>
-          </cell>
-          <cell r="L55" t="str">
-            <v>Hugohope209</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="J56">
-            <v>27343669262</v>
-          </cell>
-          <cell r="K56">
-            <v>27343669262</v>
-          </cell>
-          <cell r="L56" t="str">
-            <v>Jessica2022</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="J57">
-            <v>24056449082</v>
-          </cell>
-          <cell r="K57">
-            <v>24056449082</v>
-          </cell>
-          <cell r="L57" t="str">
-            <v>Johnny2023</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="J58">
-            <v>27364071359</v>
-          </cell>
-          <cell r="K58">
-            <v>27364071359</v>
-          </cell>
-          <cell r="L58" t="str">
-            <v>MelissaH1104</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="J59">
-            <v>20149466739</v>
-          </cell>
-          <cell r="K59">
-            <v>20149466739</v>
-          </cell>
-          <cell r="L59" t="str">
-            <v>Ricardo212</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="J60">
-            <v>20175255819</v>
-          </cell>
-          <cell r="K60">
-            <v>33712529909</v>
-          </cell>
-          <cell r="L60" t="str">
-            <v>Crispin2022</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="J61">
-            <v>20174123072</v>
-          </cell>
-          <cell r="K61">
-            <v>20174123072</v>
-          </cell>
-          <cell r="L61" t="str">
-            <v>Carlos1510</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="J62">
-            <v>20408973598</v>
-          </cell>
-          <cell r="K62">
-            <v>20408973598</v>
-          </cell>
-          <cell r="L62" t="str">
-            <v>Matiasinsa209</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="J63">
-            <v>23377046129</v>
-          </cell>
-          <cell r="K63">
-            <v>23377046129</v>
-          </cell>
-          <cell r="L63" t="str">
-            <v>Nicolas240</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="J64">
-            <v>20100325048</v>
-          </cell>
-          <cell r="K64">
-            <v>20100325048</v>
-          </cell>
-          <cell r="L64" t="str">
-            <v>Jouliae1356</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="J65">
-            <v>20175255819</v>
-          </cell>
-          <cell r="K65">
-            <v>33712370829</v>
-          </cell>
-          <cell r="L65" t="str">
-            <v>Crispin2022</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="J66">
-            <v>27045207388</v>
-          </cell>
-          <cell r="K66">
-            <v>27045207388</v>
-          </cell>
-          <cell r="L66" t="str">
-            <v>Anamaria2022</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="J67">
-            <v>27222731416</v>
-          </cell>
-          <cell r="K67">
-            <v>27222731416</v>
-          </cell>
-          <cell r="L67" t="str">
-            <v>Nonona2022</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="J68">
-            <v>27058846916</v>
-          </cell>
-          <cell r="K68">
-            <v>27058846916</v>
-          </cell>
-          <cell r="L68" t="str">
-            <v>Lazcozh277</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="J69">
-            <v>23385665709</v>
-          </cell>
-          <cell r="K69">
-            <v>23385665709</v>
-          </cell>
-          <cell r="L69" t="str">
-            <v>Dallas5058</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="J70">
-            <v>23120538209</v>
-          </cell>
-          <cell r="K70">
-            <v>23120538209</v>
-          </cell>
-          <cell r="L70" t="str">
-            <v>Pliniolin240</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="J71">
-            <v>27173878309</v>
-          </cell>
-          <cell r="K71">
-            <v>27173878309</v>
-          </cell>
-          <cell r="L71" t="str">
-            <v>Lionettoc280</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="J72">
-            <v>20203385049</v>
-          </cell>
-          <cell r="K72">
-            <v>20203385049</v>
-          </cell>
-          <cell r="L72" t="str">
-            <v>Posadas4601</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="J73">
-            <v>23173121539</v>
-          </cell>
-          <cell r="K73">
-            <v>23173121539</v>
-          </cell>
-          <cell r="L73" t="str">
-            <v>Posadas4602</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="J74">
-            <v>23173121539</v>
-          </cell>
-          <cell r="K74">
-            <v>23173121539</v>
-          </cell>
-          <cell r="L74" t="str">
-            <v>Posadas4602</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="J75">
-            <v>23246015139</v>
-          </cell>
-          <cell r="K75">
-            <v>23246015139</v>
-          </cell>
-          <cell r="L75" t="str">
-            <v>Posadas4919</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="J76">
-            <v>27163651918</v>
-          </cell>
-          <cell r="K76">
-            <v>27163651918</v>
-          </cell>
-          <cell r="L76" t="str">
-            <v>Martina2783</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="J77">
-            <v>20168296011</v>
-          </cell>
-          <cell r="K77">
-            <v>20168296011</v>
-          </cell>
-          <cell r="L77" t="str">
-            <v>Jcmayol2022</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="J78">
-            <v>20203383666</v>
-          </cell>
-          <cell r="K78">
-            <v>20203383666</v>
-          </cell>
-          <cell r="L78" t="str">
-            <v>Rmayol2022</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="J79">
-            <v>20133762761</v>
-          </cell>
-          <cell r="K79">
-            <v>30657146850</v>
-          </cell>
-          <cell r="L79" t="str">
-            <v>Cferreyra60</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="J80">
-            <v>27128520851</v>
-          </cell>
-          <cell r="K80">
-            <v>27128520851</v>
-          </cell>
-          <cell r="L80" t="str">
-            <v>Molaspatricia272</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="J81">
-            <v>20077065637</v>
-          </cell>
-          <cell r="K81">
-            <v>20077065637</v>
-          </cell>
-          <cell r="L81" t="str">
-            <v>PEnsaanibal208</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="J82">
-            <v>20343667966</v>
-          </cell>
-          <cell r="K82">
-            <v>20343667966</v>
-          </cell>
-          <cell r="L82" t="str">
-            <v>bruno206</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="J83">
-            <v>20075878495</v>
-          </cell>
-          <cell r="K83">
-            <v>20075878495</v>
-          </cell>
-          <cell r="L83" t="str">
-            <v>Roberto205</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="J84">
-            <v>20334250327</v>
-          </cell>
-          <cell r="K84">
-            <v>20334250327</v>
-          </cell>
-          <cell r="L84" t="str">
-            <v>Pensalu208</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="J85">
-            <v>27354872183</v>
-          </cell>
-          <cell r="K85">
-            <v>27354872183</v>
-          </cell>
-          <cell r="L85" t="str">
-            <v>Peugenia275</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="J86">
-            <v>20085452291</v>
-          </cell>
-          <cell r="K86">
-            <v>20085452291</v>
-          </cell>
-          <cell r="L86" t="str">
-            <v>Oscarp2022</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="J87">
-            <v>20334250327</v>
-          </cell>
-          <cell r="K87">
-            <v>30716503816</v>
-          </cell>
-          <cell r="L87" t="str">
-            <v>Pensalu208</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="J88">
-            <v>27176756751</v>
-          </cell>
-          <cell r="K88" t="e">
-            <v>#VALUE!</v>
-          </cell>
-          <cell r="L88" t="str">
-            <v>aTHENUCHI06</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="J89">
-            <v>20172521771</v>
-          </cell>
-          <cell r="K89">
-            <v>20172521771</v>
-          </cell>
-          <cell r="L89" t="str">
-            <v>Pereyra2022</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="J90">
-            <v>20115533003</v>
-          </cell>
-          <cell r="K90">
-            <v>20115533003</v>
-          </cell>
-          <cell r="L90" t="str">
-            <v>Jorgefer2021</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="J91">
-            <v>27169311027</v>
-          </cell>
-          <cell r="K91">
-            <v>27169311027</v>
-          </cell>
-          <cell r="L91" t="str">
-            <v>Piasentinia277</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="J92">
-            <v>27176756751</v>
-          </cell>
-          <cell r="K92">
-            <v>27176756751</v>
-          </cell>
-          <cell r="L92" t="str">
-            <v>aTHENUCHI06</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="J93">
-            <v>20100325048</v>
-          </cell>
-          <cell r="K93">
-            <v>30708370122</v>
-          </cell>
-          <cell r="L93" t="str">
-            <v>Jouliae1356</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="J94">
-            <v>20109908852</v>
-          </cell>
-          <cell r="K94">
-            <v>30687910636</v>
-          </cell>
-          <cell r="L94" t="str">
-            <v>Robertob2330</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="J95">
-            <v>20168291931</v>
-          </cell>
-          <cell r="K95">
-            <v>30709206695</v>
-          </cell>
-          <cell r="L95" t="str">
-            <v>apipeAPIPE789</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="J96">
-            <v>20309592159</v>
-          </cell>
-          <cell r="K96">
-            <v>20309592159</v>
-          </cell>
-          <cell r="L96" t="str">
-            <v>Rieraariel209</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="J97">
-            <v>20121182832</v>
-          </cell>
-          <cell r="K97">
-            <v>20121182832</v>
-          </cell>
-          <cell r="L97" t="str">
-            <v>RieraManuel2023</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="J98">
-            <v>20173120282</v>
-          </cell>
-          <cell r="K98">
-            <v>20173120282</v>
-          </cell>
-          <cell r="L98" t="str">
-            <v>Marcelo2021</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="J99">
-            <v>27217236547</v>
-          </cell>
-          <cell r="K99">
-            <v>27217236547</v>
-          </cell>
-          <cell r="L99" t="str">
-            <v>Florencia2000</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="J100">
-            <v>20116452023</v>
-          </cell>
-          <cell r="K100">
-            <v>30510926583</v>
-          </cell>
-          <cell r="L100" t="str">
-            <v>Ljrc421992</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="J101">
-            <v>23351897074</v>
-          </cell>
-          <cell r="K101">
-            <v>23351897074</v>
-          </cell>
-          <cell r="L101" t="str">
-            <v>Lucila2022</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="J102">
-            <v>27109797257</v>
-          </cell>
-          <cell r="K102">
-            <v>27109797257</v>
-          </cell>
-          <cell r="L102" t="str">
-            <v>Olgascotto279</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="J103">
-            <v>27068286323</v>
-          </cell>
-          <cell r="K103">
-            <v>27068286323</v>
-          </cell>
-          <cell r="L103" t="str">
-            <v>Sesmero2022</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="J104">
-            <v>27067089680</v>
-          </cell>
-          <cell r="K104">
-            <v>27067089680</v>
-          </cell>
-          <cell r="L104" t="str">
-            <v>Tsesmero271</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="J105">
-            <v>23149462074</v>
-          </cell>
-          <cell r="K105">
-            <v>23149462074</v>
-          </cell>
-          <cell r="L105" t="str">
-            <v>Gabriela2023</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="J106">
-            <v>23248265159</v>
-          </cell>
-          <cell r="K106">
-            <v>23248265159</v>
-          </cell>
-          <cell r="L106" t="str">
-            <v>Sebastian10</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="J107">
-            <v>23242946669</v>
-          </cell>
-          <cell r="K107">
-            <v>23242946669</v>
-          </cell>
-          <cell r="L107" t="str">
-            <v>Miguelsoto666</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="J108">
-            <v>27201932268</v>
-          </cell>
-          <cell r="K108">
-            <v>27201932268</v>
-          </cell>
-          <cell r="L108" t="str">
-            <v>Samanta1035</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="J109">
-            <v>27201178776</v>
-          </cell>
-          <cell r="K109">
-            <v>27201178776</v>
-          </cell>
-          <cell r="L109" t="str">
-            <v>Monicaszy11</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="J110">
-            <v>27348916942</v>
-          </cell>
-          <cell r="K110">
-            <v>27348916942</v>
-          </cell>
-          <cell r="L110" t="str">
-            <v>karen580</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="J111">
-            <v>20149462601</v>
-          </cell>
-          <cell r="K111">
-            <v>20149462601</v>
-          </cell>
-          <cell r="L111" t="str">
-            <v>Marcelo203</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="J112">
-            <v>20074827455</v>
-          </cell>
-          <cell r="K112">
-            <v>20074827455</v>
-          </cell>
-          <cell r="L112" t="str">
-            <v>Ricardo103</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="J113">
-            <v>20130056637</v>
-          </cell>
-          <cell r="K113">
-            <v>20130056637</v>
-          </cell>
-          <cell r="L113" t="str">
-            <v>Tabbiae208</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="J114">
-            <v>20133762761</v>
-          </cell>
-          <cell r="K114">
-            <v>30715577743</v>
-          </cell>
-          <cell r="L114" t="str">
-            <v>Cferreyra60</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="J115">
-            <v>27236873744</v>
-          </cell>
-          <cell r="K115">
-            <v>27236873744</v>
-          </cell>
-          <cell r="L115" t="str">
-            <v>Sotomalena0818</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="J116">
-            <v>20051985967</v>
-          </cell>
-          <cell r="K116">
-            <v>20051985967</v>
-          </cell>
-          <cell r="L116" t="str">
-            <v>Andres5967</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="J117">
-            <v>20230966738</v>
-          </cell>
-          <cell r="K117">
-            <v>20230966738</v>
-          </cell>
-          <cell r="L117" t="str">
-            <v>Durrutia4441</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="J118">
-            <v>27116976620</v>
-          </cell>
-          <cell r="K118">
-            <v>27116976620</v>
-          </cell>
-          <cell r="L118" t="str">
-            <v>Miriamu272</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="J119">
-            <v>20044483441</v>
-          </cell>
-          <cell r="K119" t="e">
-            <v>#VALUE!</v>
-          </cell>
-          <cell r="L119" t="str">
-            <v>Calafate2022</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="J120">
-            <v>20315731330</v>
-          </cell>
-          <cell r="K120">
-            <v>20315731330</v>
-          </cell>
-          <cell r="L120" t="str">
-            <v>AngelGV200</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="J121">
-            <v>20110780525</v>
-          </cell>
-          <cell r="K121">
-            <v>20110780525</v>
-          </cell>
-          <cell r="L121" t="str">
-            <v>vare205</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="J122">
-            <v>20301650087</v>
-          </cell>
-          <cell r="K122">
-            <v>20301650087</v>
-          </cell>
-          <cell r="L122" t="str">
-            <v>VarenizaLeo208</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="J123">
-            <v>20334250327</v>
-          </cell>
-          <cell r="K123">
-            <v>30715795864</v>
-          </cell>
-          <cell r="L123" t="str">
-            <v>Pensalu208</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="J124">
-            <v>27142090959</v>
-          </cell>
-          <cell r="K124">
-            <v>27142090959</v>
-          </cell>
-          <cell r="L124" t="str">
-            <v>Trapito5058</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
@@ -1579,6 +216,1375 @@
           </cell>
         </row>
       </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Hoja1"/>
+      <sheetName val="Hoja2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="J2" t="str">
+            <v>CUIT AFIP</v>
+          </cell>
+          <cell r="K2" t="str">
+            <v>CUIT Contrib</v>
+          </cell>
+          <cell r="L2" t="str">
+            <v>Clave</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="J3">
+            <v>27061302838</v>
+          </cell>
+          <cell r="K3">
+            <v>27061302838</v>
+          </cell>
+          <cell r="L3" t="str">
+            <v>Acostadelia101</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="J4">
+            <v>23183086499</v>
+          </cell>
+          <cell r="K4">
+            <v>30709419567</v>
+          </cell>
+          <cell r="L4" t="str">
+            <v>Horacio310</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="J5">
+            <v>20203385197</v>
+          </cell>
+          <cell r="K5">
+            <v>20203385197</v>
+          </cell>
+          <cell r="L5" t="str">
+            <v>JCAmarilla2272</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="J6">
+            <v>20170395167</v>
+          </cell>
+          <cell r="K6">
+            <v>30592932446</v>
+          </cell>
+          <cell r="L6" t="str">
+            <v>Hugohope209</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="J7">
+            <v>20114794083</v>
+          </cell>
+          <cell r="K7">
+            <v>30708553715</v>
+          </cell>
+          <cell r="L7" t="str">
+            <v>Victordf2022</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="J8">
+            <v>20208992032</v>
+          </cell>
+          <cell r="K8">
+            <v>20208992032</v>
+          </cell>
+          <cell r="L8" t="str">
+            <v>ASTgerardo22</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="J9">
+            <v>20175255819</v>
+          </cell>
+          <cell r="K9">
+            <v>20175255819</v>
+          </cell>
+          <cell r="L9" t="str">
+            <v>Crispin2022</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="J10">
+            <v>23183086499</v>
+          </cell>
+          <cell r="K10">
+            <v>23183086499</v>
+          </cell>
+          <cell r="L10" t="str">
+            <v>Horacio310</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="J11">
+            <v>20416948926</v>
+          </cell>
+          <cell r="K11">
+            <v>20416948926</v>
+          </cell>
+          <cell r="L11" t="str">
+            <v>Beitia2022</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="J12">
+            <v>20398190727</v>
+          </cell>
+          <cell r="K12">
+            <v>20398190727</v>
+          </cell>
+          <cell r="L12" t="str">
+            <v>Unaibeitia207</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="J13">
+            <v>20246008109</v>
+          </cell>
+          <cell r="K13">
+            <v>20246008109</v>
+          </cell>
+          <cell r="L13" t="str">
+            <v>L@rrygrb209</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="J14">
+            <v>20168291281</v>
+          </cell>
+          <cell r="K14">
+            <v>20168291281</v>
+          </cell>
+          <cell r="L14" t="str">
+            <v>busTos1964</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="J15">
+            <v>20147130202</v>
+          </cell>
+          <cell r="K15">
+            <v>30650940667</v>
+          </cell>
+          <cell r="L15" t="str">
+            <v>Martinb202</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="J16">
+            <v>20147130202</v>
+          </cell>
+          <cell r="K16">
+            <v>20147130202</v>
+          </cell>
+          <cell r="L16" t="str">
+            <v>Martinb202</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="J17">
+            <v>27148268105</v>
+          </cell>
+          <cell r="K17">
+            <v>27148268105</v>
+          </cell>
+          <cell r="L17" t="str">
+            <v>Gracielac276</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="J18">
+            <v>27261827366</v>
+          </cell>
+          <cell r="K18">
+            <v>27261827366</v>
+          </cell>
+          <cell r="L18" t="str">
+            <v>CarballoG12</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="J19">
+            <v>23149462074</v>
+          </cell>
+          <cell r="K19">
+            <v>30707912223</v>
+          </cell>
+          <cell r="L19" t="str">
+            <v>Gabriela2023</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="J20">
+            <v>20082750488</v>
+          </cell>
+          <cell r="K20">
+            <v>20082750488</v>
+          </cell>
+          <cell r="L20" t="str">
+            <v>CastroC210</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="J21">
+            <v>20303980378</v>
+          </cell>
+          <cell r="K21">
+            <v>20303980378</v>
+          </cell>
+          <cell r="L21" t="str">
+            <v>Sinclair.208</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="J22">
+            <v>20277690323</v>
+          </cell>
+          <cell r="K22">
+            <v>20277690323</v>
+          </cell>
+          <cell r="L22" t="str">
+            <v>Julian79</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="J23">
+            <v>20174123072</v>
+          </cell>
+          <cell r="K23">
+            <v>30672372697</v>
+          </cell>
+          <cell r="L23" t="str">
+            <v>Carlos1510</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="J24">
+            <v>27222731416</v>
+          </cell>
+          <cell r="K24">
+            <v>30712026797</v>
+          </cell>
+          <cell r="L24" t="str">
+            <v>Nonona2022</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="J25">
+            <v>23351897074</v>
+          </cell>
+          <cell r="K25">
+            <v>30715085409</v>
+          </cell>
+          <cell r="L25" t="str">
+            <v>Lucila2022</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="J26">
+            <v>27109797257</v>
+          </cell>
+          <cell r="K26">
+            <v>30717059111</v>
+          </cell>
+          <cell r="L26" t="str">
+            <v>Olgascotto279</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="J27">
+            <v>27171709925</v>
+          </cell>
+          <cell r="K27">
+            <v>27171709925</v>
+          </cell>
+          <cell r="L27" t="str">
+            <v>Coronasm276</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="J28">
+            <v>20208993462</v>
+          </cell>
+          <cell r="K28">
+            <v>20208993462</v>
+          </cell>
+          <cell r="L28" t="str">
+            <v>corrales46</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="J29">
+            <v>20168291680</v>
+          </cell>
+          <cell r="K29">
+            <v>20168291680</v>
+          </cell>
+          <cell r="L29" t="str">
+            <v>Luisc30001</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="J30">
+            <v>20114794083</v>
+          </cell>
+          <cell r="K30">
+            <v>30672355393</v>
+          </cell>
+          <cell r="L30" t="str">
+            <v>Victordf2022</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="J31">
+            <v>27055761685</v>
+          </cell>
+          <cell r="K31">
+            <v>27055761685</v>
+          </cell>
+          <cell r="L31" t="str">
+            <v>AngelaC275</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="J32">
+            <v>23267800499</v>
+          </cell>
+          <cell r="K32">
+            <v>23267800499</v>
+          </cell>
+          <cell r="L32" t="str">
+            <v>diego10</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="J33">
+            <v>23051636864</v>
+          </cell>
+          <cell r="K33">
+            <v>23051636864</v>
+          </cell>
+          <cell r="L33" t="str">
+            <v>LUCILA10</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="J34">
+            <v>27201178776</v>
+          </cell>
+          <cell r="K34">
+            <v>30717537153</v>
+          </cell>
+          <cell r="L34" t="str">
+            <v>Monicaszy11</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="J35">
+            <v>20149462601</v>
+          </cell>
+          <cell r="K35">
+            <v>30709431834</v>
+          </cell>
+          <cell r="L35" t="str">
+            <v>Marcelo203</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="J36">
+            <v>20175255819</v>
+          </cell>
+          <cell r="K36">
+            <v>30568711420</v>
+          </cell>
+          <cell r="L36" t="str">
+            <v>Crispin2022</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="J37">
+            <v>20361947674</v>
+          </cell>
+          <cell r="K37">
+            <v>20361947674</v>
+          </cell>
+          <cell r="L37" t="str">
+            <v>Cesare2021</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="J38">
+            <v>20149466356</v>
+          </cell>
+          <cell r="K38">
+            <v>20149466356</v>
+          </cell>
+          <cell r="L38" t="str">
+            <v>REEnriquez208</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="J39">
+            <v>20169933031</v>
+          </cell>
+          <cell r="K39">
+            <v>20169933031</v>
+          </cell>
+          <cell r="L39" t="str">
+            <v>Estudio2022</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="J40">
+            <v>20168296011</v>
+          </cell>
+          <cell r="K40">
+            <v>33653520439</v>
+          </cell>
+          <cell r="L40" t="str">
+            <v>Jcmayol2022</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="J41">
+            <v>20170395167</v>
+          </cell>
+          <cell r="K41">
+            <v>30672356381</v>
+          </cell>
+          <cell r="L41" t="str">
+            <v>Hugohope209</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="J42">
+            <v>27182653972</v>
+          </cell>
+          <cell r="K42">
+            <v>27182653972</v>
+          </cell>
+          <cell r="L42" t="str">
+            <v>Chabuca273</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="J43">
+            <v>20168291834</v>
+          </cell>
+          <cell r="K43">
+            <v>20168291834</v>
+          </cell>
+          <cell r="L43" t="str">
+            <v>TOfi04041965</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="J44">
+            <v>20133762761</v>
+          </cell>
+          <cell r="K44">
+            <v>20133762761</v>
+          </cell>
+          <cell r="L44" t="str">
+            <v>Cferreyra60</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="J45">
+            <v>20327623967</v>
+          </cell>
+          <cell r="K45">
+            <v>20327623967</v>
+          </cell>
+          <cell r="L45" t="str">
+            <v>Candresferreyra86</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="J46">
+            <v>23342751644</v>
+          </cell>
+          <cell r="K46">
+            <v>23342751644</v>
+          </cell>
+          <cell r="L46" t="str">
+            <v>CVFerreyra89</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="J47">
+            <v>20170394845</v>
+          </cell>
+          <cell r="K47">
+            <v>20170394845</v>
+          </cell>
+          <cell r="L47" t="str">
+            <v>Mferreyra64</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="J48">
+            <v>23173121539</v>
+          </cell>
+          <cell r="K48">
+            <v>30715347926</v>
+          </cell>
+          <cell r="L48" t="str">
+            <v>Posadas4601</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="J49">
+            <v>20100325048</v>
+          </cell>
+          <cell r="K49">
+            <v>30708878762</v>
+          </cell>
+          <cell r="L49" t="str">
+            <v>Jouliae1356</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="J50">
+            <v>20100325048</v>
+          </cell>
+          <cell r="K50">
+            <v>30708626348</v>
+          </cell>
+          <cell r="L50" t="str">
+            <v>Jouliae1356</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="J51">
+            <v>20175255819</v>
+          </cell>
+          <cell r="K51">
+            <v>30701299538</v>
+          </cell>
+          <cell r="L51" t="str">
+            <v>Crispin2022</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="J52">
+            <v>20203387882</v>
+          </cell>
+          <cell r="K52">
+            <v>20203387882</v>
+          </cell>
+          <cell r="L52" t="str">
+            <v>FREAZA01</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="J53">
+            <v>20149466356</v>
+          </cell>
+          <cell r="K53">
+            <v>30710404131</v>
+          </cell>
+          <cell r="L53" t="str">
+            <v>REEnriquez208</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="J54">
+            <v>27111482476</v>
+          </cell>
+          <cell r="K54">
+            <v>27111482476</v>
+          </cell>
+          <cell r="L54" t="str">
+            <v>DORA2716</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="J55">
+            <v>20170395167</v>
+          </cell>
+          <cell r="K55">
+            <v>20170395167</v>
+          </cell>
+          <cell r="L55" t="str">
+            <v>Hugohope209</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="J56">
+            <v>27343669262</v>
+          </cell>
+          <cell r="K56">
+            <v>27343669262</v>
+          </cell>
+          <cell r="L56" t="str">
+            <v>Jessica2022</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="J57">
+            <v>24056449082</v>
+          </cell>
+          <cell r="K57">
+            <v>24056449082</v>
+          </cell>
+          <cell r="L57" t="str">
+            <v>Johnny2023</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="J58">
+            <v>27364071359</v>
+          </cell>
+          <cell r="K58">
+            <v>27364071359</v>
+          </cell>
+          <cell r="L58" t="str">
+            <v>MelissaH1104</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="J59">
+            <v>20149466739</v>
+          </cell>
+          <cell r="K59">
+            <v>20149466739</v>
+          </cell>
+          <cell r="L59" t="str">
+            <v>Ricardo212</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="J60">
+            <v>20175255819</v>
+          </cell>
+          <cell r="K60">
+            <v>33712529909</v>
+          </cell>
+          <cell r="L60" t="str">
+            <v>Crispin2022</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="J61">
+            <v>20174123072</v>
+          </cell>
+          <cell r="K61">
+            <v>20174123072</v>
+          </cell>
+          <cell r="L61" t="str">
+            <v>Carlos1510</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="J62">
+            <v>20408973598</v>
+          </cell>
+          <cell r="K62">
+            <v>20408973598</v>
+          </cell>
+          <cell r="L62" t="str">
+            <v>Matiasinsa209</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="J63">
+            <v>23377046129</v>
+          </cell>
+          <cell r="K63">
+            <v>23377046129</v>
+          </cell>
+          <cell r="L63" t="str">
+            <v>Nicolas240</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="J64">
+            <v>20100325048</v>
+          </cell>
+          <cell r="K64">
+            <v>20100325048</v>
+          </cell>
+          <cell r="L64" t="str">
+            <v>Jouliae1356</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="J65">
+            <v>20175255819</v>
+          </cell>
+          <cell r="K65">
+            <v>33712370829</v>
+          </cell>
+          <cell r="L65" t="str">
+            <v>Crispin2022</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="J66">
+            <v>27045207388</v>
+          </cell>
+          <cell r="K66">
+            <v>27045207388</v>
+          </cell>
+          <cell r="L66" t="str">
+            <v>Anamaria2022</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="J67">
+            <v>27222731416</v>
+          </cell>
+          <cell r="K67">
+            <v>27222731416</v>
+          </cell>
+          <cell r="L67" t="str">
+            <v>Nonona2022</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="J68">
+            <v>27058846916</v>
+          </cell>
+          <cell r="K68">
+            <v>27058846916</v>
+          </cell>
+          <cell r="L68" t="str">
+            <v>Lazcozh277</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="J69">
+            <v>23385665709</v>
+          </cell>
+          <cell r="K69">
+            <v>23385665709</v>
+          </cell>
+          <cell r="L69" t="str">
+            <v>Dallas5058</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="J70">
+            <v>23120538209</v>
+          </cell>
+          <cell r="K70">
+            <v>23120538209</v>
+          </cell>
+          <cell r="L70" t="str">
+            <v>Pliniolin240</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="J71">
+            <v>27173878309</v>
+          </cell>
+          <cell r="K71">
+            <v>27173878309</v>
+          </cell>
+          <cell r="L71" t="str">
+            <v>Lionettoc280</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="J72">
+            <v>20203385049</v>
+          </cell>
+          <cell r="K72">
+            <v>20203385049</v>
+          </cell>
+          <cell r="L72" t="str">
+            <v>Posadas4601</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="J73">
+            <v>23173121539</v>
+          </cell>
+          <cell r="K73">
+            <v>23173121539</v>
+          </cell>
+          <cell r="L73" t="str">
+            <v>Posadas4602</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="J74">
+            <v>23173121539</v>
+          </cell>
+          <cell r="K74">
+            <v>23173121539</v>
+          </cell>
+          <cell r="L74" t="str">
+            <v>Posadas4602</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="J75">
+            <v>23246015139</v>
+          </cell>
+          <cell r="K75">
+            <v>23246015139</v>
+          </cell>
+          <cell r="L75" t="str">
+            <v>Posadas4919</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="J76">
+            <v>27163651918</v>
+          </cell>
+          <cell r="K76">
+            <v>27163651918</v>
+          </cell>
+          <cell r="L76" t="str">
+            <v>Martina2783</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="J77">
+            <v>20168296011</v>
+          </cell>
+          <cell r="K77">
+            <v>20168296011</v>
+          </cell>
+          <cell r="L77" t="str">
+            <v>Jcmayol2022</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="J78">
+            <v>20203383666</v>
+          </cell>
+          <cell r="K78">
+            <v>20203383666</v>
+          </cell>
+          <cell r="L78" t="str">
+            <v>Rmayol2022</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="J79">
+            <v>20133762761</v>
+          </cell>
+          <cell r="K79">
+            <v>30657146850</v>
+          </cell>
+          <cell r="L79" t="str">
+            <v>Cferreyra60</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="J80">
+            <v>27128520851</v>
+          </cell>
+          <cell r="K80">
+            <v>27128520851</v>
+          </cell>
+          <cell r="L80" t="str">
+            <v>Molaspatricia272</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="J81">
+            <v>20077065637</v>
+          </cell>
+          <cell r="K81">
+            <v>20077065637</v>
+          </cell>
+          <cell r="L81" t="str">
+            <v>PEnsaanibal208</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="J82">
+            <v>20343667966</v>
+          </cell>
+          <cell r="K82">
+            <v>20343667966</v>
+          </cell>
+          <cell r="L82" t="str">
+            <v>bruno206</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="J83">
+            <v>20075878495</v>
+          </cell>
+          <cell r="K83">
+            <v>20075878495</v>
+          </cell>
+          <cell r="L83" t="str">
+            <v>Roberto205</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="J84">
+            <v>20334250327</v>
+          </cell>
+          <cell r="K84">
+            <v>20334250327</v>
+          </cell>
+          <cell r="L84" t="str">
+            <v>Pensalu208</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="J85">
+            <v>27354872183</v>
+          </cell>
+          <cell r="K85">
+            <v>27354872183</v>
+          </cell>
+          <cell r="L85" t="str">
+            <v>Peugenia275</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="J86">
+            <v>20085452291</v>
+          </cell>
+          <cell r="K86">
+            <v>20085452291</v>
+          </cell>
+          <cell r="L86" t="str">
+            <v>Oscarp2022</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="J87">
+            <v>20334250327</v>
+          </cell>
+          <cell r="K87">
+            <v>30716503816</v>
+          </cell>
+          <cell r="L87" t="str">
+            <v>Pensalu208</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="J88">
+            <v>27176756751</v>
+          </cell>
+          <cell r="K88" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="L88" t="str">
+            <v>aTHENUCHI06</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="J89">
+            <v>20172521771</v>
+          </cell>
+          <cell r="K89">
+            <v>20172521771</v>
+          </cell>
+          <cell r="L89" t="str">
+            <v>Pereyra2022</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="J90">
+            <v>20115533003</v>
+          </cell>
+          <cell r="K90">
+            <v>20115533003</v>
+          </cell>
+          <cell r="L90" t="str">
+            <v>Jorgefer2021</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="J91">
+            <v>27169311027</v>
+          </cell>
+          <cell r="K91">
+            <v>27169311027</v>
+          </cell>
+          <cell r="L91" t="str">
+            <v>Piasentinia277</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="J92">
+            <v>27176756751</v>
+          </cell>
+          <cell r="K92">
+            <v>27176756751</v>
+          </cell>
+          <cell r="L92" t="str">
+            <v>aTHENUCHI06</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="J93">
+            <v>20100325048</v>
+          </cell>
+          <cell r="K93">
+            <v>30708370122</v>
+          </cell>
+          <cell r="L93" t="str">
+            <v>Jouliae1356</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="J94">
+            <v>20109908852</v>
+          </cell>
+          <cell r="K94">
+            <v>30687910636</v>
+          </cell>
+          <cell r="L94" t="str">
+            <v>Robertob2330</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="J95">
+            <v>20168291931</v>
+          </cell>
+          <cell r="K95">
+            <v>30709206695</v>
+          </cell>
+          <cell r="L95" t="str">
+            <v>apipeAPIPE789</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="J96">
+            <v>20309592159</v>
+          </cell>
+          <cell r="K96">
+            <v>20309592159</v>
+          </cell>
+          <cell r="L96" t="str">
+            <v>Rieraariel209</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="J97">
+            <v>20121182832</v>
+          </cell>
+          <cell r="K97">
+            <v>20121182832</v>
+          </cell>
+          <cell r="L97" t="str">
+            <v>RieraManuel2023</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="J98">
+            <v>20173120282</v>
+          </cell>
+          <cell r="K98">
+            <v>20173120282</v>
+          </cell>
+          <cell r="L98" t="str">
+            <v>Marcelo2021</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="J99">
+            <v>27217236547</v>
+          </cell>
+          <cell r="K99">
+            <v>27217236547</v>
+          </cell>
+          <cell r="L99" t="str">
+            <v>Florencia2000</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="J100">
+            <v>20116452023</v>
+          </cell>
+          <cell r="K100">
+            <v>30510926583</v>
+          </cell>
+          <cell r="L100" t="str">
+            <v>Ljrc421992</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="J101">
+            <v>23351897074</v>
+          </cell>
+          <cell r="K101">
+            <v>23351897074</v>
+          </cell>
+          <cell r="L101" t="str">
+            <v>Lucila2022</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="J102">
+            <v>27109797257</v>
+          </cell>
+          <cell r="K102">
+            <v>27109797257</v>
+          </cell>
+          <cell r="L102" t="str">
+            <v>Olgascotto279</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="J103">
+            <v>27068286323</v>
+          </cell>
+          <cell r="K103">
+            <v>27068286323</v>
+          </cell>
+          <cell r="L103" t="str">
+            <v>Sesmero2022</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="J104">
+            <v>27067089680</v>
+          </cell>
+          <cell r="K104">
+            <v>27067089680</v>
+          </cell>
+          <cell r="L104" t="str">
+            <v>Tsesmero271</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="J105">
+            <v>23149462074</v>
+          </cell>
+          <cell r="K105">
+            <v>23149462074</v>
+          </cell>
+          <cell r="L105" t="str">
+            <v>Gabriela2023</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="J106">
+            <v>23248265159</v>
+          </cell>
+          <cell r="K106">
+            <v>23248265159</v>
+          </cell>
+          <cell r="L106" t="str">
+            <v>Sebastian10</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="J107">
+            <v>23242946669</v>
+          </cell>
+          <cell r="K107">
+            <v>23242946669</v>
+          </cell>
+          <cell r="L107" t="str">
+            <v>Miguelsoto666</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="J108">
+            <v>27201932268</v>
+          </cell>
+          <cell r="K108">
+            <v>27201932268</v>
+          </cell>
+          <cell r="L108" t="str">
+            <v>Samanta1035</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="J109">
+            <v>27201178776</v>
+          </cell>
+          <cell r="K109">
+            <v>27201178776</v>
+          </cell>
+          <cell r="L109" t="str">
+            <v>Monicaszy11</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="J110">
+            <v>27348916942</v>
+          </cell>
+          <cell r="K110">
+            <v>27348916942</v>
+          </cell>
+          <cell r="L110" t="str">
+            <v>karen580</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="J111">
+            <v>20149462601</v>
+          </cell>
+          <cell r="K111">
+            <v>20149462601</v>
+          </cell>
+          <cell r="L111" t="str">
+            <v>Marcelo203</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="J112">
+            <v>20074827455</v>
+          </cell>
+          <cell r="K112">
+            <v>20074827455</v>
+          </cell>
+          <cell r="L112" t="str">
+            <v>Ricardo103</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="J113">
+            <v>20130056637</v>
+          </cell>
+          <cell r="K113">
+            <v>20130056637</v>
+          </cell>
+          <cell r="L113" t="str">
+            <v>Tabbiae208</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="J114">
+            <v>20133762761</v>
+          </cell>
+          <cell r="K114">
+            <v>30715577743</v>
+          </cell>
+          <cell r="L114" t="str">
+            <v>Cferreyra60</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="J115">
+            <v>27236873744</v>
+          </cell>
+          <cell r="K115">
+            <v>27236873744</v>
+          </cell>
+          <cell r="L115" t="str">
+            <v>Sotomalena0818</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="J116">
+            <v>20051985967</v>
+          </cell>
+          <cell r="K116">
+            <v>20051985967</v>
+          </cell>
+          <cell r="L116" t="str">
+            <v>Andres5967</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="J117">
+            <v>20230966738</v>
+          </cell>
+          <cell r="K117">
+            <v>20230966738</v>
+          </cell>
+          <cell r="L117" t="str">
+            <v>Durrutia4441</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="J118">
+            <v>27116976620</v>
+          </cell>
+          <cell r="K118">
+            <v>27116976620</v>
+          </cell>
+          <cell r="L118" t="str">
+            <v>Miriamu272</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="J119">
+            <v>20044483441</v>
+          </cell>
+          <cell r="K119" t="e">
+            <v>#VALUE!</v>
+          </cell>
+          <cell r="L119" t="str">
+            <v>Calafate2022</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="J120">
+            <v>20315731330</v>
+          </cell>
+          <cell r="K120">
+            <v>20315731330</v>
+          </cell>
+          <cell r="L120" t="str">
+            <v>AngelGV200</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="J121">
+            <v>20110780525</v>
+          </cell>
+          <cell r="K121">
+            <v>20110780525</v>
+          </cell>
+          <cell r="L121" t="str">
+            <v>vare205</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="J122">
+            <v>20301650087</v>
+          </cell>
+          <cell r="K122">
+            <v>20301650087</v>
+          </cell>
+          <cell r="L122" t="str">
+            <v>VarenizaLeo208</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="J123">
+            <v>20334250327</v>
+          </cell>
+          <cell r="K123">
+            <v>30715795864</v>
+          </cell>
+          <cell r="L123" t="str">
+            <v>Pensalu208</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="J124">
+            <v>27142090959</v>
+          </cell>
+          <cell r="K124">
+            <v>27142090959</v>
+          </cell>
+          <cell r="L124" t="str">
+            <v>Trapito5058</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1851,7 +1857,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1941,41 +1947,43 @@
       </c>
       <c r="F2" s="3">
         <f ca="1">TODAY()</f>
-        <v>45078</v>
+        <v>45079</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="I2" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J2" s="2" t="str">
         <f ca="1">CONCATENATE(TEXT(A2,"0")," - ","ART - ",TEXT(F2,"AAAAMMDD")," - ",SUBSTITUTE(D2,"-","")," - ",B2)</f>
-        <v>0 - ART - 20230601 - 20000000000 - Cliente</v>
+        <v>0 - ART - 20230602 - 20000000000 - Cliente</v>
       </c>
       <c r="K2" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J2,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J2,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L2" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C2,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C2,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M2" s="5" t="str">
-        <f>IF(EXACT(L2,E2),"ü","x")</f>
+        <f t="shared" ref="M2:M33" si="1">IF(EXACT(L2,E2),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="N2" s="4">
-        <f>ROW(A2)</f>
+        <f t="shared" ref="N2:N33" si="2">ROW(A2)</f>
         <v>2</v>
       </c>
       <c r="O2" s="4">
-        <f>IF(C2=C1,1,0)</f>
+        <f t="shared" ref="O2:O33" si="3">IF(C2=C1,1,0)</f>
         <v>0</v>
       </c>
       <c r="P2" s="4">
-        <f>IF(C2=C3,1,0)</f>
+        <f t="shared" ref="P2:P33" si="4">IF(C2=C3,1,0)</f>
         <v>1</v>
       </c>
       <c r="Q2" s="4">
-        <f t="shared" ref="Q2:Q33" si="1">SUM(O2:P2)</f>
+        <f t="shared" ref="Q2:Q33" si="5">SUM(O2:P2)</f>
         <v>1</v>
       </c>
     </row>
@@ -1998,42 +2006,44 @@
         <v>13</v>
       </c>
       <c r="F3" s="3">
-        <f t="shared" ref="F3:F66" ca="1" si="2">TODAY()</f>
-        <v>45078</v>
+        <f t="shared" ref="F3:F66" ca="1" si="6">TODAY()</f>
+        <v>45079</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="I3" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="J3" s="2" t="str">
-        <f t="shared" ref="J3:J66" ca="1" si="3">CONCATENATE(TEXT(A3,"0")," - ","ART - ",TEXT(F3,"AAAAMMDD")," - ",SUBSTITUTE(D3,"-","")," - ",B3)</f>
-        <v>0 - ART - 20230601 - 20000000000 - Cliente</v>
+        <f t="shared" ref="J3:J66" ca="1" si="7">CONCATENATE(TEXT(A3,"0")," - ","ART - ",TEXT(F3,"AAAAMMDD")," - ",SUBSTITUTE(D3,"-","")," - ",B3)</f>
+        <v>0 - ART - 20230602 - 20000000000 - Cliente</v>
       </c>
       <c r="K3" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J3,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J3,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L3" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C3,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C3,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M3" s="5" t="str">
-        <f>IF(EXACT(L3,E3),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>x</v>
       </c>
       <c r="N3" s="4">
-        <f>ROW(A3)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="O3" s="4">
-        <f>IF(C3=C2,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P3" s="4">
-        <f>IF(C3=C4,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q3" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -2055,42 +2065,42 @@
         <v>13</v>
       </c>
       <c r="F4" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45079</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K4" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J4,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J4,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L4" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C4,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C4,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M4" s="5" t="str">
-        <f>IF(EXACT(L4,E4),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>x</v>
       </c>
       <c r="N4" s="4">
-        <f>ROW(A4)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="O4" s="4">
-        <f>IF(C4=C3,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P4" s="4">
-        <f>IF(C4=C5,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q4" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -2112,42 +2122,42 @@
         <v>13</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45079</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K5" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J5,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J5,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L5" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C5,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C5,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M5" s="5" t="str">
-        <f>IF(EXACT(L5,E5),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>x</v>
       </c>
       <c r="N5" s="4">
-        <f>ROW(A5)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="O5" s="4">
-        <f>IF(C5=C4,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P5" s="4">
-        <f>IF(C5=C6,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q5" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -2169,42 +2179,42 @@
         <v>13</v>
       </c>
       <c r="F6" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45079</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K6" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J6,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J6,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L6" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C6,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C6,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M6" s="5" t="str">
-        <f>IF(EXACT(L6,E6),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>x</v>
       </c>
       <c r="N6" s="4">
-        <f>ROW(A6)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="O6" s="4">
-        <f>IF(C6=C5,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P6" s="4">
-        <f>IF(C6=C7,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q6" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -2226,42 +2236,42 @@
         <v>13</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45079</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K7" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J7,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J7,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L7" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C7,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C7,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M7" s="5" t="str">
-        <f>IF(EXACT(L7,E7),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>x</v>
       </c>
       <c r="N7" s="4">
-        <f>ROW(A7)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="O7" s="4">
-        <f>IF(C7=C6,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P7" s="4">
-        <f>IF(C7=C8,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q7" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -2283,42 +2293,42 @@
         <v>13</v>
       </c>
       <c r="F8" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45079</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K8" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J8,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J8,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L8" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C8,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C8,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M8" s="5" t="str">
-        <f>IF(EXACT(L8,E8),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>x</v>
       </c>
       <c r="N8" s="4">
-        <f>ROW(A8)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="O8" s="4">
-        <f>IF(C8=C7,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P8" s="4">
-        <f>IF(C8=C9,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -2340,42 +2350,42 @@
         <v>13</v>
       </c>
       <c r="F9" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45079</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K9" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J9,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J9,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L9" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C9,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C9,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M9" s="5" t="str">
-        <f>IF(EXACT(L9,E9),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>x</v>
       </c>
       <c r="N9" s="4">
-        <f>ROW(A9)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="O9" s="4">
-        <f>IF(C9=C8,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P9" s="4">
-        <f>IF(C9=C10,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q9" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -2397,42 +2407,42 @@
         <v>13</v>
       </c>
       <c r="F10" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45079</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K10" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J10,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J10,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L10" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C10,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C10,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M10" s="5" t="str">
-        <f>IF(EXACT(L10,E10),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>x</v>
       </c>
       <c r="N10" s="4">
-        <f>ROW(A10)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="O10" s="4">
-        <f>IF(C10=C9,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P10" s="4">
-        <f>IF(C10=C11,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q10" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -2454,42 +2464,42 @@
         <v>13</v>
       </c>
       <c r="F11" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45079</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K11" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J11,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J11,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L11" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C11,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C11,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M11" s="5" t="str">
-        <f>IF(EXACT(L11,E11),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>x</v>
       </c>
       <c r="N11" s="4">
-        <f>ROW(A11)</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="O11" s="4">
-        <f>IF(C11=C10,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P11" s="4">
-        <f>IF(C11=C12,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q11" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -2511,42 +2521,42 @@
         <v>13</v>
       </c>
       <c r="F12" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45079</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K12" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J12,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J12,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L12" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C12,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C12,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M12" s="5" t="str">
-        <f>IF(EXACT(L12,E12),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>x</v>
       </c>
       <c r="N12" s="4">
-        <f>ROW(A12)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="O12" s="4">
-        <f>IF(C12=C11,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P12" s="4">
-        <f>IF(C12=C13,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q12" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -2568,42 +2578,42 @@
         <v>13</v>
       </c>
       <c r="F13" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45079</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K13" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J13,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J13,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L13" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C13,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C13,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M13" s="5" t="str">
-        <f>IF(EXACT(L13,E13),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>x</v>
       </c>
       <c r="N13" s="4">
-        <f>ROW(A13)</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="O13" s="4">
-        <f>IF(C13=C12,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P13" s="4">
-        <f>IF(C13=C14,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q13" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -2625,42 +2635,42 @@
         <v>13</v>
       </c>
       <c r="F14" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45079</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K14" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J14,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J14,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L14" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C14,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C14,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M14" s="5" t="str">
-        <f>IF(EXACT(L14,E14),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>x</v>
       </c>
       <c r="N14" s="4">
-        <f>ROW(A14)</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="O14" s="4">
-        <f>IF(C14=C13,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P14" s="4">
-        <f>IF(C14=C15,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q14" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -2682,42 +2692,42 @@
         <v>13</v>
       </c>
       <c r="F15" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45079</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K15" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J15,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J15,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L15" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C15,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C15,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M15" s="5" t="str">
-        <f>IF(EXACT(L15,E15),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>x</v>
       </c>
       <c r="N15" s="4">
-        <f>ROW(A15)</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="O15" s="4">
-        <f>IF(C15=C14,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P15" s="4">
-        <f>IF(C15=C16,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q15" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -2739,42 +2749,42 @@
         <v>13</v>
       </c>
       <c r="F16" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45079</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K16" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J16,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J16,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L16" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C16,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C16,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M16" s="5" t="str">
-        <f>IF(EXACT(L16,E16),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>x</v>
       </c>
       <c r="N16" s="4">
-        <f>ROW(A16)</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="O16" s="4">
-        <f>IF(C16=C15,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P16" s="4">
-        <f>IF(C16=C17,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q16" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -2796,42 +2806,42 @@
         <v>13</v>
       </c>
       <c r="F17" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45079</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K17" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J17,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J17,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L17" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C17,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C17,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M17" s="5" t="str">
-        <f>IF(EXACT(L17,E17),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>x</v>
       </c>
       <c r="N17" s="4">
-        <f>ROW(A17)</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="O17" s="4">
-        <f>IF(C17=C16,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P17" s="4">
-        <f>IF(C17=C18,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q17" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -2853,42 +2863,42 @@
         <v>13</v>
       </c>
       <c r="F18" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45079</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K18" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J18,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J18,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L18" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C18,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C18,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M18" s="5" t="str">
-        <f>IF(EXACT(L18,E18),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>x</v>
       </c>
       <c r="N18" s="4">
-        <f>ROW(A18)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="O18" s="4">
-        <f>IF(C18=C17,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P18" s="4">
-        <f>IF(C18=C19,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -2910,42 +2920,42 @@
         <v>13</v>
       </c>
       <c r="F19" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45079</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K19" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J19,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J19,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L19" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C19,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C19,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M19" s="5" t="str">
-        <f>IF(EXACT(L19,E19),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>x</v>
       </c>
       <c r="N19" s="4">
-        <f>ROW(A19)</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="O19" s="4">
-        <f>IF(C19=C18,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P19" s="4">
-        <f>IF(C19=C20,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q19" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -2967,42 +2977,42 @@
         <v>13</v>
       </c>
       <c r="F20" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45079</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K20" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J20,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J20,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L20" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C20,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C20,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M20" s="5" t="str">
-        <f>IF(EXACT(L20,E20),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>x</v>
       </c>
       <c r="N20" s="4">
-        <f>ROW(A20)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="O20" s="4">
-        <f>IF(C20=C19,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P20" s="4">
-        <f>IF(C20=C21,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q20" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -3024,42 +3034,42 @@
         <v>13</v>
       </c>
       <c r="F21" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45079</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K21" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J21,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J21,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L21" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C21,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C21,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M21" s="5" t="str">
-        <f>IF(EXACT(L21,E21),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>x</v>
       </c>
       <c r="N21" s="4">
-        <f>ROW(A21)</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="O21" s="4">
-        <f>IF(C21=C20,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P21" s="4">
-        <f>IF(C21=C22,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q21" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -3081,42 +3091,42 @@
         <v>13</v>
       </c>
       <c r="F22" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45079</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K22" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J22,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J22,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L22" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C22,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C22,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M22" s="5" t="str">
-        <f>IF(EXACT(L22,E22),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>x</v>
       </c>
       <c r="N22" s="4">
-        <f>ROW(A22)</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="O22" s="4">
-        <f>IF(C22=C21,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P22" s="4">
-        <f>IF(C22=C23,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q22" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -3138,42 +3148,42 @@
         <v>13</v>
       </c>
       <c r="F23" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45079</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K23" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J23,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J23,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L23" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C23,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C23,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M23" s="5" t="str">
-        <f>IF(EXACT(L23,E23),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>x</v>
       </c>
       <c r="N23" s="4">
-        <f>ROW(A23)</f>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="O23" s="4">
-        <f>IF(C23=C22,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P23" s="4">
-        <f>IF(C23=C24,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q23" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -3195,42 +3205,42 @@
         <v>13</v>
       </c>
       <c r="F24" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45079</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K24" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J24,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J24,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L24" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C24,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C24,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M24" s="5" t="str">
-        <f>IF(EXACT(L24,E24),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>x</v>
       </c>
       <c r="N24" s="4">
-        <f>ROW(A24)</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="O24" s="4">
-        <f>IF(C24=C23,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P24" s="4">
-        <f>IF(C24=C25,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q24" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -3252,42 +3262,42 @@
         <v>13</v>
       </c>
       <c r="F25" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45079</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K25" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J25,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J25,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L25" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C25,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C25,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M25" s="5" t="str">
-        <f>IF(EXACT(L25,E25),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>x</v>
       </c>
       <c r="N25" s="4">
-        <f>ROW(A25)</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="O25" s="4">
-        <f>IF(C25=C24,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P25" s="4">
-        <f>IF(C25=C26,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q25" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -3309,42 +3319,42 @@
         <v>13</v>
       </c>
       <c r="F26" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45079</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K26" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J26,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J26,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L26" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C26,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C26,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M26" s="5" t="str">
-        <f>IF(EXACT(L26,E26),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>x</v>
       </c>
       <c r="N26" s="4">
-        <f>ROW(A26)</f>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="O26" s="4">
-        <f>IF(C26=C25,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P26" s="4">
-        <f>IF(C26=C27,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q26" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -3366,42 +3376,42 @@
         <v>13</v>
       </c>
       <c r="F27" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45079</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K27" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J27,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J27,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L27" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C27,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C27,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M27" s="5" t="str">
-        <f>IF(EXACT(L27,E27),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>x</v>
       </c>
       <c r="N27" s="4">
-        <f>ROW(A27)</f>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="O27" s="4">
-        <f>IF(C27=C26,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P27" s="4">
-        <f>IF(C27=C28,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q27" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -3423,42 +3433,42 @@
         <v>13</v>
       </c>
       <c r="F28" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45079</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K28" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J28,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J28,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L28" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C28,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C28,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M28" s="5" t="str">
-        <f>IF(EXACT(L28,E28),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>x</v>
       </c>
       <c r="N28" s="4">
-        <f>ROW(A28)</f>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="O28" s="4">
-        <f>IF(C28=C27,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P28" s="4">
-        <f>IF(C28=C29,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q28" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -3480,42 +3490,42 @@
         <v>13</v>
       </c>
       <c r="F29" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45079</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K29" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J29,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J29,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L29" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C29,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C29,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M29" s="5" t="str">
-        <f>IF(EXACT(L29,E29),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>x</v>
       </c>
       <c r="N29" s="4">
-        <f>ROW(A29)</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="O29" s="4">
-        <f>IF(C29=C28,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P29" s="4">
-        <f>IF(C29=C30,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q29" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -3537,42 +3547,42 @@
         <v>13</v>
       </c>
       <c r="F30" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45079</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K30" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J30,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J30,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L30" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C30,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C30,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M30" s="5" t="str">
-        <f>IF(EXACT(L30,E30),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>x</v>
       </c>
       <c r="N30" s="4">
-        <f>ROW(A30)</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="O30" s="4">
-        <f>IF(C30=C29,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P30" s="4">
-        <f>IF(C30=C31,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q30" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -3594,42 +3604,42 @@
         <v>13</v>
       </c>
       <c r="F31" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45079</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K31" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J31,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J31,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L31" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C31,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C31,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M31" s="5" t="str">
-        <f>IF(EXACT(L31,E31),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>x</v>
       </c>
       <c r="N31" s="4">
-        <f>ROW(A31)</f>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="O31" s="4">
-        <f>IF(C31=C30,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P31" s="4">
-        <f>IF(C31=C32,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q31" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -3651,42 +3661,42 @@
         <v>13</v>
       </c>
       <c r="F32" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45079</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K32" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J32,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J32,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L32" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C32,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C32,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M32" s="5" t="str">
-        <f>IF(EXACT(L32,E32),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>x</v>
       </c>
       <c r="N32" s="4">
-        <f>ROW(A32)</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="O32" s="4">
-        <f>IF(C32=C31,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P32" s="4">
-        <f>IF(C32=C33,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q32" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -3708,48 +3718,48 @@
         <v>13</v>
       </c>
       <c r="F33" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45079</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K33" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J33,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J33,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L33" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C33,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C33,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M33" s="5" t="str">
-        <f>IF(EXACT(L33,E33),"ü","x")</f>
+        <f t="shared" si="1"/>
         <v>x</v>
       </c>
       <c r="N33" s="4">
-        <f>ROW(A33)</f>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="O33" s="4">
-        <f>IF(C33=C32,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P33" s="4">
-        <f>IF(C33=C34,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q33" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="str">
-        <f t="shared" ref="A34:A69" si="4">RIGHT(D34,1)</f>
+        <f t="shared" ref="A34:A69" si="8">RIGHT(D34,1)</f>
         <v>0</v>
       </c>
       <c r="B34" t="s">
@@ -3765,48 +3775,48 @@
         <v>13</v>
       </c>
       <c r="F34" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45079</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K34" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J34,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J34,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L34" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C34,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C34,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M34" s="5" t="str">
-        <f>IF(EXACT(L34,E34),"ü","x")</f>
+        <f t="shared" ref="M34:M65" si="9">IF(EXACT(L34,E34),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="N34" s="4">
-        <f>ROW(A34)</f>
+        <f t="shared" ref="N34:N65" si="10">ROW(A34)</f>
         <v>34</v>
       </c>
       <c r="O34" s="4">
-        <f>IF(C34=C33,1,0)</f>
+        <f t="shared" ref="O34:O67" si="11">IF(C34=C33,1,0)</f>
         <v>1</v>
       </c>
       <c r="P34" s="4">
-        <f>IF(C34=C35,1,0)</f>
+        <f t="shared" ref="P34:P67" si="12">IF(C34=C35,1,0)</f>
         <v>1</v>
       </c>
       <c r="Q34" s="4">
-        <f t="shared" ref="Q34:Q65" si="5">SUM(O34:P34)</f>
+        <f t="shared" ref="Q34:Q65" si="13">SUM(O34:P34)</f>
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B35" t="s">
@@ -3822,48 +3832,48 @@
         <v>13</v>
       </c>
       <c r="F35" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45079</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K35" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J35,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J35,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L35" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C35,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C35,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M35" s="5" t="str">
-        <f>IF(EXACT(L35,E35),"ü","x")</f>
+        <f t="shared" si="9"/>
         <v>x</v>
       </c>
       <c r="N35" s="4">
-        <f>ROW(A35)</f>
+        <f t="shared" si="10"/>
         <v>35</v>
       </c>
       <c r="O35" s="4">
-        <f>IF(C35=C34,1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="P35" s="4">
-        <f>IF(C35=C36,1,0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Q35" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B36" t="s">
@@ -3879,48 +3889,48 @@
         <v>13</v>
       </c>
       <c r="F36" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45079</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K36" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J36,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J36,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L36" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C36,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C36,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M36" s="5" t="str">
-        <f>IF(EXACT(L36,E36),"ü","x")</f>
+        <f t="shared" si="9"/>
         <v>x</v>
       </c>
       <c r="N36" s="4">
-        <f>ROW(A36)</f>
+        <f t="shared" si="10"/>
         <v>36</v>
       </c>
       <c r="O36" s="4">
-        <f>IF(C36=C35,1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="P36" s="4">
-        <f>IF(C36=C37,1,0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Q36" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B37" t="s">
@@ -3936,48 +3946,48 @@
         <v>13</v>
       </c>
       <c r="F37" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45079</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="J37" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K37" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J37,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J37,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L37" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C37,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C37,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M37" s="5" t="str">
-        <f>IF(EXACT(L37,E37),"ü","x")</f>
+        <f t="shared" si="9"/>
         <v>x</v>
       </c>
       <c r="N37" s="4">
-        <f>ROW(A37)</f>
+        <f t="shared" si="10"/>
         <v>37</v>
       </c>
       <c r="O37" s="4">
-        <f>IF(C37=C36,1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="P37" s="4">
-        <f>IF(C37=C38,1,0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Q37" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B38" t="s">
@@ -3993,48 +4003,48 @@
         <v>13</v>
       </c>
       <c r="F38" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45079</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K38" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J38,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J38,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L38" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C38,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C38,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M38" s="5" t="str">
-        <f>IF(EXACT(L38,E38),"ü","x")</f>
+        <f t="shared" si="9"/>
         <v>x</v>
       </c>
       <c r="N38" s="4">
-        <f>ROW(A38)</f>
+        <f t="shared" si="10"/>
         <v>38</v>
       </c>
       <c r="O38" s="4">
-        <f>IF(C38=C37,1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="P38" s="4">
-        <f>IF(C38=C39,1,0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Q38" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B39" t="s">
@@ -4050,48 +4060,48 @@
         <v>13</v>
       </c>
       <c r="F39" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45079</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K39" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J39,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J39,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L39" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C39,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C39,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M39" s="5" t="str">
-        <f>IF(EXACT(L39,E39),"ü","x")</f>
+        <f t="shared" si="9"/>
         <v>x</v>
       </c>
       <c r="N39" s="4">
-        <f>ROW(A39)</f>
+        <f t="shared" si="10"/>
         <v>39</v>
       </c>
       <c r="O39" s="4">
-        <f>IF(C39=C38,1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="P39" s="4">
-        <f>IF(C39=C40,1,0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Q39" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B40" t="s">
@@ -4107,48 +4117,48 @@
         <v>13</v>
       </c>
       <c r="F40" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45079</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
       <c r="J40" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K40" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J40,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J40,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L40" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C40,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C40,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M40" s="5" t="str">
-        <f>IF(EXACT(L40,E40),"ü","x")</f>
+        <f t="shared" si="9"/>
         <v>x</v>
       </c>
       <c r="N40" s="4">
-        <f>ROW(A40)</f>
+        <f t="shared" si="10"/>
         <v>40</v>
       </c>
       <c r="O40" s="4">
-        <f>IF(C40=C39,1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="P40" s="4">
-        <f>IF(C40=C41,1,0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Q40" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B41" t="s">
@@ -4164,48 +4174,48 @@
         <v>13</v>
       </c>
       <c r="F41" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45079</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K41" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J41,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J41,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L41" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C41,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C41,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M41" s="5" t="str">
-        <f>IF(EXACT(L41,E41),"ü","x")</f>
+        <f t="shared" si="9"/>
         <v>x</v>
       </c>
       <c r="N41" s="4">
-        <f>ROW(A41)</f>
+        <f t="shared" si="10"/>
         <v>41</v>
       </c>
       <c r="O41" s="4">
-        <f>IF(C41=C40,1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="P41" s="4">
-        <f>IF(C41=C42,1,0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Q41" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B42" t="s">
@@ -4221,48 +4231,48 @@
         <v>13</v>
       </c>
       <c r="F42" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45079</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K42" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J42,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J42,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L42" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C42,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C42,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M42" s="5" t="str">
-        <f>IF(EXACT(L42,E42),"ü","x")</f>
+        <f t="shared" si="9"/>
         <v>x</v>
       </c>
       <c r="N42" s="4">
-        <f>ROW(A42)</f>
+        <f t="shared" si="10"/>
         <v>42</v>
       </c>
       <c r="O42" s="4">
-        <f>IF(C42=C41,1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="P42" s="4">
-        <f>IF(C42=C43,1,0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Q42" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B43" t="s">
@@ -4278,48 +4288,48 @@
         <v>13</v>
       </c>
       <c r="F43" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45079</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K43" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J43,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J43,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L43" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C43,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C43,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M43" s="5" t="str">
-        <f>IF(EXACT(L43,E43),"ü","x")</f>
+        <f t="shared" si="9"/>
         <v>x</v>
       </c>
       <c r="N43" s="4">
-        <f>ROW(A43)</f>
+        <f t="shared" si="10"/>
         <v>43</v>
       </c>
       <c r="O43" s="4">
-        <f>IF(C43=C42,1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="P43" s="4">
-        <f>IF(C43=C44,1,0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Q43" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B44" t="s">
@@ -4335,48 +4345,48 @@
         <v>13</v>
       </c>
       <c r="F44" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45079</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
       <c r="J44" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K44" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J44,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J44,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L44" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C44,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C44,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M44" s="5" t="str">
-        <f>IF(EXACT(L44,E44),"ü","x")</f>
+        <f t="shared" si="9"/>
         <v>x</v>
       </c>
       <c r="N44" s="4">
-        <f>ROW(A44)</f>
+        <f t="shared" si="10"/>
         <v>44</v>
       </c>
       <c r="O44" s="4">
-        <f>IF(C44=C43,1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="P44" s="4">
-        <f>IF(C44=C45,1,0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Q44" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B45" t="s">
@@ -4392,48 +4402,48 @@
         <v>13</v>
       </c>
       <c r="F45" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45079</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K45" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J45,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J45,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L45" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C45,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C45,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M45" s="5" t="str">
-        <f>IF(EXACT(L45,E45),"ü","x")</f>
+        <f t="shared" si="9"/>
         <v>x</v>
       </c>
       <c r="N45" s="4">
-        <f>ROW(A45)</f>
+        <f t="shared" si="10"/>
         <v>45</v>
       </c>
       <c r="O45" s="4">
-        <f>IF(C45=C44,1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="P45" s="4">
-        <f>IF(C45=C46,1,0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Q45" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B46" t="s">
@@ -4449,48 +4459,48 @@
         <v>13</v>
       </c>
       <c r="F46" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45079</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K46" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J46,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J46,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L46" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C46,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C46,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M46" s="5" t="str">
-        <f>IF(EXACT(L46,E46),"ü","x")</f>
+        <f t="shared" si="9"/>
         <v>x</v>
       </c>
       <c r="N46" s="4">
-        <f>ROW(A46)</f>
+        <f t="shared" si="10"/>
         <v>46</v>
       </c>
       <c r="O46" s="4">
-        <f>IF(C46=C45,1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="P46" s="4">
-        <f>IF(C46=C47,1,0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Q46" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B47" t="s">
@@ -4506,48 +4516,48 @@
         <v>13</v>
       </c>
       <c r="F47" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45079</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K47" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J47,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J47,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L47" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C47,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C47,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M47" s="5" t="str">
-        <f>IF(EXACT(L47,E47),"ü","x")</f>
+        <f t="shared" si="9"/>
         <v>x</v>
       </c>
       <c r="N47" s="4">
-        <f>ROW(A47)</f>
+        <f t="shared" si="10"/>
         <v>47</v>
       </c>
       <c r="O47" s="4">
-        <f>IF(C47=C46,1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="P47" s="4">
-        <f>IF(C47=C48,1,0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Q47" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B48" t="s">
@@ -4563,48 +4573,48 @@
         <v>13</v>
       </c>
       <c r="F48" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45079</v>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K48" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J48,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J48,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L48" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C48,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C48,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M48" s="5" t="str">
-        <f>IF(EXACT(L48,E48),"ü","x")</f>
+        <f t="shared" si="9"/>
         <v>x</v>
       </c>
       <c r="N48" s="4">
-        <f>ROW(A48)</f>
+        <f t="shared" si="10"/>
         <v>48</v>
       </c>
       <c r="O48" s="4">
-        <f>IF(C48=C47,1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="P48" s="4">
-        <f>IF(C48=C49,1,0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Q48" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B49" t="s">
@@ -4620,48 +4630,48 @@
         <v>13</v>
       </c>
       <c r="F49" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45079</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
       <c r="J49" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K49" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J49,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J49,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L49" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C49,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C49,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M49" s="5" t="str">
-        <f>IF(EXACT(L49,E49),"ü","x")</f>
+        <f t="shared" si="9"/>
         <v>x</v>
       </c>
       <c r="N49" s="4">
-        <f>ROW(A49)</f>
+        <f t="shared" si="10"/>
         <v>49</v>
       </c>
       <c r="O49" s="4">
-        <f>IF(C49=C48,1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="P49" s="4">
-        <f>IF(C49=C50,1,0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Q49" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B50" t="s">
@@ -4677,48 +4687,48 @@
         <v>13</v>
       </c>
       <c r="F50" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45079</v>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
       <c r="J50" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K50" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J50,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J50,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L50" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C50,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C50,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M50" s="5" t="str">
-        <f>IF(EXACT(L50,E50),"ü","x")</f>
+        <f t="shared" si="9"/>
         <v>x</v>
       </c>
       <c r="N50" s="4">
-        <f>ROW(A50)</f>
+        <f t="shared" si="10"/>
         <v>50</v>
       </c>
       <c r="O50" s="4">
-        <f>IF(C50=C49,1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="P50" s="4">
-        <f>IF(C50=C51,1,0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Q50" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B51" t="s">
@@ -4734,48 +4744,48 @@
         <v>13</v>
       </c>
       <c r="F51" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45079</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
       <c r="J51" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K51" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J51,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J51,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L51" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C51,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C51,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M51" s="5" t="str">
-        <f>IF(EXACT(L51,E51),"ü","x")</f>
+        <f t="shared" si="9"/>
         <v>x</v>
       </c>
       <c r="N51" s="4">
-        <f>ROW(A51)</f>
+        <f t="shared" si="10"/>
         <v>51</v>
       </c>
       <c r="O51" s="4">
-        <f>IF(C51=C50,1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="P51" s="4">
-        <f>IF(C51=C52,1,0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Q51" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B52" t="s">
@@ -4791,48 +4801,48 @@
         <v>13</v>
       </c>
       <c r="F52" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45079</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
       <c r="J52" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K52" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J52,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J52,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L52" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C52,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C52,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M52" s="5" t="str">
-        <f>IF(EXACT(L52,E52),"ü","x")</f>
+        <f t="shared" si="9"/>
         <v>x</v>
       </c>
       <c r="N52" s="4">
-        <f>ROW(A52)</f>
+        <f t="shared" si="10"/>
         <v>52</v>
       </c>
       <c r="O52" s="4">
-        <f>IF(C52=C51,1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="P52" s="4">
-        <f>IF(C52=C53,1,0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Q52" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B53" t="s">
@@ -4848,48 +4858,48 @@
         <v>13</v>
       </c>
       <c r="F53" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45079</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K53" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J53,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J53,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L53" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C53,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C53,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M53" s="5" t="str">
-        <f>IF(EXACT(L53,E53),"ü","x")</f>
+        <f t="shared" si="9"/>
         <v>x</v>
       </c>
       <c r="N53" s="4">
-        <f>ROW(A53)</f>
+        <f t="shared" si="10"/>
         <v>53</v>
       </c>
       <c r="O53" s="4">
-        <f>IF(C53=C52,1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="P53" s="4">
-        <f>IF(C53=C54,1,0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Q53" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B54" t="s">
@@ -4905,48 +4915,48 @@
         <v>13</v>
       </c>
       <c r="F54" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45079</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K54" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J54,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J54,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L54" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C54,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C54,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M54" s="5" t="str">
-        <f>IF(EXACT(L54,E54),"ü","x")</f>
+        <f t="shared" si="9"/>
         <v>x</v>
       </c>
       <c r="N54" s="4">
-        <f>ROW(A54)</f>
+        <f t="shared" si="10"/>
         <v>54</v>
       </c>
       <c r="O54" s="4">
-        <f>IF(C54=C53,1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="P54" s="4">
-        <f>IF(C54=C55,1,0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Q54" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B55" t="s">
@@ -4962,48 +4972,48 @@
         <v>13</v>
       </c>
       <c r="F55" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45079</v>
       </c>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
       <c r="J55" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K55" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J55,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J55,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L55" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C55,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C55,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M55" s="5" t="str">
-        <f>IF(EXACT(L55,E55),"ü","x")</f>
+        <f t="shared" si="9"/>
         <v>x</v>
       </c>
       <c r="N55" s="4">
-        <f>ROW(A55)</f>
+        <f t="shared" si="10"/>
         <v>55</v>
       </c>
       <c r="O55" s="4">
-        <f>IF(C55=C54,1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="P55" s="4">
-        <f>IF(C55=C56,1,0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Q55" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B56" t="s">
@@ -5019,48 +5029,48 @@
         <v>13</v>
       </c>
       <c r="F56" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45079</v>
       </c>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="J56" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K56" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J56,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J56,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L56" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C56,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C56,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M56" s="5" t="str">
-        <f>IF(EXACT(L56,E56),"ü","x")</f>
+        <f t="shared" si="9"/>
         <v>x</v>
       </c>
       <c r="N56" s="4">
-        <f>ROW(A56)</f>
+        <f t="shared" si="10"/>
         <v>56</v>
       </c>
       <c r="O56" s="4">
-        <f>IF(C56=C55,1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="P56" s="4">
-        <f>IF(C56=C57,1,0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Q56" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B57" t="s">
@@ -5076,48 +5086,48 @@
         <v>13</v>
       </c>
       <c r="F57" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45079</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
       <c r="J57" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K57" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J57,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J57,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L57" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C57,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C57,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M57" s="5" t="str">
-        <f>IF(EXACT(L57,E57),"ü","x")</f>
+        <f t="shared" si="9"/>
         <v>x</v>
       </c>
       <c r="N57" s="4">
-        <f>ROW(A57)</f>
+        <f t="shared" si="10"/>
         <v>57</v>
       </c>
       <c r="O57" s="4">
-        <f>IF(C57=C56,1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="P57" s="4">
-        <f>IF(C57=C58,1,0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Q57" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B58" t="s">
@@ -5133,48 +5143,48 @@
         <v>13</v>
       </c>
       <c r="F58" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45079</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
       <c r="J58" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K58" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J58,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J58,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L58" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C58,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C58,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M58" s="5" t="str">
-        <f>IF(EXACT(L58,E58),"ü","x")</f>
+        <f t="shared" si="9"/>
         <v>x</v>
       </c>
       <c r="N58" s="4">
-        <f>ROW(A58)</f>
+        <f t="shared" si="10"/>
         <v>58</v>
       </c>
       <c r="O58" s="4">
-        <f>IF(C58=C57,1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="P58" s="4">
-        <f>IF(C58=C59,1,0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Q58" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B59" t="s">
@@ -5190,48 +5200,48 @@
         <v>13</v>
       </c>
       <c r="F59" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45079</v>
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K59" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J59,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J59,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L59" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C59,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C59,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M59" s="5" t="str">
-        <f>IF(EXACT(L59,E59),"ü","x")</f>
+        <f t="shared" si="9"/>
         <v>x</v>
       </c>
       <c r="N59" s="4">
-        <f>ROW(A59)</f>
+        <f t="shared" si="10"/>
         <v>59</v>
       </c>
       <c r="O59" s="4">
-        <f>IF(C59=C58,1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="P59" s="4">
-        <f>IF(C59=C60,1,0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Q59" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B60" t="s">
@@ -5247,48 +5257,48 @@
         <v>13</v>
       </c>
       <c r="F60" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45079</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
       <c r="J60" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K60" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J60,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J60,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L60" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C60,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C60,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M60" s="5" t="str">
-        <f>IF(EXACT(L60,E60),"ü","x")</f>
+        <f t="shared" si="9"/>
         <v>x</v>
       </c>
       <c r="N60" s="4">
-        <f>ROW(A60)</f>
+        <f t="shared" si="10"/>
         <v>60</v>
       </c>
       <c r="O60" s="4">
-        <f>IF(C60=C59,1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="P60" s="4">
-        <f>IF(C60=C61,1,0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Q60" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B61" t="s">
@@ -5304,48 +5314,48 @@
         <v>13</v>
       </c>
       <c r="F61" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45079</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
       <c r="J61" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K61" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J61,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J61,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L61" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C61,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C61,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M61" s="5" t="str">
-        <f>IF(EXACT(L61,E61),"ü","x")</f>
+        <f t="shared" si="9"/>
         <v>x</v>
       </c>
       <c r="N61" s="4">
-        <f>ROW(A61)</f>
+        <f t="shared" si="10"/>
         <v>61</v>
       </c>
       <c r="O61" s="4">
-        <f>IF(C61=C60,1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="P61" s="4">
-        <f>IF(C61=C62,1,0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Q61" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B62" t="s">
@@ -5361,48 +5371,48 @@
         <v>13</v>
       </c>
       <c r="F62" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45079</v>
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
       <c r="J62" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K62" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J62,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J62,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L62" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C62,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C62,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M62" s="5" t="str">
-        <f>IF(EXACT(L62,E62),"ü","x")</f>
+        <f t="shared" si="9"/>
         <v>x</v>
       </c>
       <c r="N62" s="4">
-        <f>ROW(A62)</f>
+        <f t="shared" si="10"/>
         <v>62</v>
       </c>
       <c r="O62" s="4">
-        <f>IF(C62=C61,1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="P62" s="4">
-        <f>IF(C62=C63,1,0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Q62" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B63" t="s">
@@ -5418,48 +5428,48 @@
         <v>13</v>
       </c>
       <c r="F63" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45079</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
       <c r="J63" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K63" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J63,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J63,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L63" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C63,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C63,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M63" s="5" t="str">
-        <f>IF(EXACT(L63,E63),"ü","x")</f>
+        <f t="shared" si="9"/>
         <v>x</v>
       </c>
       <c r="N63" s="4">
-        <f>ROW(A63)</f>
+        <f t="shared" si="10"/>
         <v>63</v>
       </c>
       <c r="O63" s="4">
-        <f>IF(C63=C62,1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="P63" s="4">
-        <f>IF(C63=C64,1,0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Q63" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B64" t="s">
@@ -5475,48 +5485,48 @@
         <v>13</v>
       </c>
       <c r="F64" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45079</v>
       </c>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
       <c r="J64" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K64" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J64,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J64,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L64" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C64,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C64,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M64" s="5" t="str">
-        <f>IF(EXACT(L64,E64),"ü","x")</f>
+        <f t="shared" si="9"/>
         <v>x</v>
       </c>
       <c r="N64" s="4">
-        <f>ROW(A64)</f>
+        <f t="shared" si="10"/>
         <v>64</v>
       </c>
       <c r="O64" s="4">
-        <f>IF(C64=C63,1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="P64" s="4">
-        <f>IF(C64=C65,1,0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Q64" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B65" t="s">
@@ -5532,48 +5542,48 @@
         <v>13</v>
       </c>
       <c r="F65" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45079</v>
       </c>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
       <c r="J65" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K65" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J65,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J65,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L65" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C65,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C65,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M65" s="5" t="str">
-        <f>IF(EXACT(L65,E65),"ü","x")</f>
+        <f t="shared" si="9"/>
         <v>x</v>
       </c>
       <c r="N65" s="4">
-        <f>ROW(A65)</f>
+        <f t="shared" si="10"/>
         <v>65</v>
       </c>
       <c r="O65" s="4">
-        <f>IF(C65=C64,1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="P65" s="4">
-        <f>IF(C65=C66,1,0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Q65" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B66" t="s">
@@ -5589,48 +5599,48 @@
         <v>13</v>
       </c>
       <c r="F66" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>45079</v>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
       <c r="J66" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K66" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J66,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J66,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L66" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C66,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C66,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M66" s="5" t="str">
-        <f>IF(EXACT(L66,E66),"ü","x")</f>
+        <f t="shared" ref="M66:M97" si="14">IF(EXACT(L66,E66),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="N66" s="4">
-        <f>ROW(A66)</f>
+        <f t="shared" ref="N66:N71" si="15">ROW(A66)</f>
         <v>66</v>
       </c>
       <c r="O66" s="4">
-        <f>IF(C66=C65,1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="P66" s="4">
-        <f>IF(C66=C67,1,0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Q66" s="4">
-        <f t="shared" ref="Q66:Q69" si="6">SUM(O66:P66)</f>
+        <f t="shared" ref="Q66:Q69" si="16">SUM(O66:P66)</f>
         <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B67" t="s">
@@ -5646,48 +5656,48 @@
         <v>13</v>
       </c>
       <c r="F67" s="3">
-        <f t="shared" ref="F67:F101" ca="1" si="7">TODAY()</f>
-        <v>45078</v>
+        <f t="shared" ref="F67:F101" ca="1" si="17">TODAY()</f>
+        <v>45079</v>
       </c>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
       <c r="J67" s="2" t="str">
-        <f t="shared" ref="J67:J69" ca="1" si="8">CONCATENATE(TEXT(A67,"0")," - ","ART - ",TEXT(F67,"AAAAMMDD")," - ",SUBSTITUTE(D67,"-","")," - ",B67)</f>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ref="J67:J69" ca="1" si="18">CONCATENATE(TEXT(A67,"0")," - ","ART - ",TEXT(F67,"AAAAMMDD")," - ",SUBSTITUTE(D67,"-","")," - ",B67)</f>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K67" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J67,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J67,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L67" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C67,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C67,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M67" s="5" t="str">
-        <f>IF(EXACT(L67,E67),"ü","x")</f>
+        <f t="shared" si="14"/>
         <v>x</v>
       </c>
       <c r="N67" s="4">
-        <f>ROW(A67)</f>
+        <f t="shared" si="15"/>
         <v>67</v>
       </c>
       <c r="O67" s="4">
-        <f>IF(C67=C66,1,0)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="P67" s="4">
-        <f>IF(C67=C68,1,0)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Q67" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B68" t="s">
@@ -5703,48 +5713,48 @@
         <v>13</v>
       </c>
       <c r="F68" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>45079</v>
       </c>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
       <c r="J68" s="2" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K68" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J68,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J68,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L68" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C68,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C68,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M68" s="5" t="str">
-        <f>IF(EXACT(L68,E68),"ü","x")</f>
+        <f t="shared" si="14"/>
         <v>x</v>
       </c>
       <c r="N68" s="4">
-        <f>ROW(A68)</f>
+        <f t="shared" si="15"/>
         <v>68</v>
       </c>
       <c r="O68" s="4">
-        <f t="shared" ref="O68:O69" si="9">IF(C68=C67,1,0)</f>
+        <f t="shared" ref="O68:O69" si="19">IF(C68=C67,1,0)</f>
         <v>1</v>
       </c>
       <c r="P68" s="4">
-        <f t="shared" ref="P68:P69" si="10">IF(C68=C69,1,0)</f>
+        <f t="shared" ref="P68:P69" si="20">IF(C68=C69,1,0)</f>
         <v>1</v>
       </c>
       <c r="Q68" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="B69" t="s">
@@ -5760,48 +5770,48 @@
         <v>13</v>
       </c>
       <c r="F69" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>45079</v>
       </c>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
       <c r="J69" s="2" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K69" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J69,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J69,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L69" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C69,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C69,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M69" s="5" t="str">
-        <f>IF(EXACT(L69,E69),"ü","x")</f>
+        <f t="shared" si="14"/>
         <v>x</v>
       </c>
       <c r="N69" s="4">
-        <f>ROW(A69)</f>
+        <f t="shared" si="15"/>
         <v>69</v>
       </c>
       <c r="O69" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="P69" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="Q69" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="str">
-        <f t="shared" ref="A70:A71" si="11">RIGHT(D70,1)</f>
+        <f t="shared" ref="A70:A71" si="21">RIGHT(D70,1)</f>
         <v>0</v>
       </c>
       <c r="B70" t="s">
@@ -5817,48 +5827,48 @@
         <v>13</v>
       </c>
       <c r="F70" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>45079</v>
       </c>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
       <c r="J70" s="2" t="str">
-        <f t="shared" ref="J70:J71" ca="1" si="12">CONCATENATE(TEXT(A70,"0")," - ","ART - ",TEXT(F70,"AAAAMMDD")," - ",SUBSTITUTE(D70,"-","")," - ",B70)</f>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ref="J70:J71" ca="1" si="22">CONCATENATE(TEXT(A70,"0")," - ","ART - ",TEXT(F70,"AAAAMMDD")," - ",SUBSTITUTE(D70,"-","")," - ",B70)</f>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K70" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J70,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J70,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L70" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C70,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C70,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M70" s="5" t="str">
-        <f>IF(EXACT(L70,E70),"ü","x")</f>
+        <f t="shared" si="14"/>
         <v>x</v>
       </c>
       <c r="N70" s="4">
-        <f>ROW(A70)</f>
+        <f t="shared" si="15"/>
         <v>70</v>
       </c>
       <c r="O70" s="4">
-        <f t="shared" ref="O70:O71" si="13">IF(C70=C69,1,0)</f>
+        <f t="shared" ref="O70:O71" si="23">IF(C70=C69,1,0)</f>
         <v>1</v>
       </c>
       <c r="P70" s="4">
-        <f t="shared" ref="P70:P71" si="14">IF(C70=C71,1,0)</f>
+        <f t="shared" ref="P70:P71" si="24">IF(C70=C71,1,0)</f>
         <v>1</v>
       </c>
       <c r="Q70" s="4">
-        <f t="shared" ref="Q70:Q71" si="15">SUM(O70:P70)</f>
+        <f t="shared" ref="Q70:Q71" si="25">SUM(O70:P70)</f>
         <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="B71" t="s">
@@ -5874,48 +5884,48 @@
         <v>13</v>
       </c>
       <c r="F71" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>45079</v>
       </c>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
       <c r="J71" s="2" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K71" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J71,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J71,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L71" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C71,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C71,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M71" s="5" t="str">
-        <f>IF(EXACT(L71,E71),"ü","x")</f>
+        <f t="shared" si="14"/>
         <v>x</v>
       </c>
       <c r="N71" s="4">
-        <f>ROW(A71)</f>
+        <f t="shared" si="15"/>
         <v>71</v>
       </c>
       <c r="O71" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="P71" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="Q71" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="str">
-        <f t="shared" ref="A72:A101" si="16">RIGHT(D72,1)</f>
+        <f t="shared" ref="A72:A101" si="26">RIGHT(D72,1)</f>
         <v>0</v>
       </c>
       <c r="B72" t="s">
@@ -5931,48 +5941,48 @@
         <v>13</v>
       </c>
       <c r="F72" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>45079</v>
       </c>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
       <c r="J72" s="2" t="str">
-        <f t="shared" ref="J72:J101" ca="1" si="17">CONCATENATE(TEXT(A72,"0")," - ","ART - ",TEXT(F72,"AAAAMMDD")," - ",SUBSTITUTE(D72,"-","")," - ",B72)</f>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ref="J72:J101" ca="1" si="27">CONCATENATE(TEXT(A72,"0")," - ","ART - ",TEXT(F72,"AAAAMMDD")," - ",SUBSTITUTE(D72,"-","")," - ",B72)</f>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K72" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J72,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J72,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L72" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C72,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C72,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M72" s="5" t="str">
-        <f t="shared" ref="M72:M101" si="18">IF(EXACT(L72,E72),"ü","x")</f>
+        <f t="shared" ref="M72:M101" si="28">IF(EXACT(L72,E72),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="N72" s="4">
-        <f t="shared" ref="N72:N101" si="19">ROW(A72)</f>
+        <f t="shared" ref="N72:N101" si="29">ROW(A72)</f>
         <v>72</v>
       </c>
       <c r="O72" s="4">
-        <f t="shared" ref="O72:O101" si="20">IF(C72=C71,1,0)</f>
+        <f t="shared" ref="O72:O101" si="30">IF(C72=C71,1,0)</f>
         <v>1</v>
       </c>
       <c r="P72" s="4">
-        <f t="shared" ref="P72:P101" si="21">IF(C72=C73,1,0)</f>
+        <f t="shared" ref="P72:P101" si="31">IF(C72=C73,1,0)</f>
         <v>1</v>
       </c>
       <c r="Q72" s="4">
-        <f t="shared" ref="Q72:Q101" si="22">SUM(O72:P72)</f>
+        <f t="shared" ref="Q72:Q101" si="32">SUM(O72:P72)</f>
         <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="B73" t="s">
@@ -5988,48 +5998,48 @@
         <v>13</v>
       </c>
       <c r="F73" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>45079</v>
       </c>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
       <c r="J73" s="2" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="27"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K73" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J73,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J73,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L73" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C73,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C73,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M73" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>x</v>
       </c>
       <c r="N73" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>73</v>
       </c>
       <c r="O73" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="P73" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="Q73" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="B74" t="s">
@@ -6045,48 +6055,48 @@
         <v>13</v>
       </c>
       <c r="F74" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>45079</v>
       </c>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
       <c r="J74" s="2" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="27"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K74" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J74,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J74,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L74" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C74,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C74,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M74" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>x</v>
       </c>
       <c r="N74" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>74</v>
       </c>
       <c r="O74" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="P74" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="Q74" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="B75" t="s">
@@ -6102,48 +6112,48 @@
         <v>13</v>
       </c>
       <c r="F75" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>45079</v>
       </c>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
       <c r="J75" s="2" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="27"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K75" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J75,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J75,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L75" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C75,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C75,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M75" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>x</v>
       </c>
       <c r="N75" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>75</v>
       </c>
       <c r="O75" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="P75" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="Q75" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="B76" t="s">
@@ -6159,48 +6169,48 @@
         <v>13</v>
       </c>
       <c r="F76" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>45079</v>
       </c>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
       <c r="J76" s="2" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="27"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K76" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J76,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J76,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L76" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C76,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C76,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M76" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>x</v>
       </c>
       <c r="N76" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>76</v>
       </c>
       <c r="O76" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="P76" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="Q76" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="B77" t="s">
@@ -6216,48 +6226,48 @@
         <v>13</v>
       </c>
       <c r="F77" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>45079</v>
       </c>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
       <c r="J77" s="2" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="27"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K77" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J77,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J77,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L77" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C77,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C77,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M77" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>x</v>
       </c>
       <c r="N77" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>77</v>
       </c>
       <c r="O77" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="P77" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="Q77" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="B78" t="s">
@@ -6273,48 +6283,48 @@
         <v>13</v>
       </c>
       <c r="F78" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>45079</v>
       </c>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
       <c r="J78" s="2" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="27"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K78" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J78,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J78,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L78" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C78,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C78,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M78" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>x</v>
       </c>
       <c r="N78" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>78</v>
       </c>
       <c r="O78" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="P78" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="Q78" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="B79" t="s">
@@ -6330,48 +6340,48 @@
         <v>13</v>
       </c>
       <c r="F79" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>45079</v>
       </c>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
       <c r="J79" s="2" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="27"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K79" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J79,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J79,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L79" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C79,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C79,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M79" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>x</v>
       </c>
       <c r="N79" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>79</v>
       </c>
       <c r="O79" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="P79" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="Q79" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="B80" t="s">
@@ -6387,48 +6397,48 @@
         <v>13</v>
       </c>
       <c r="F80" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>45079</v>
       </c>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
       <c r="J80" s="2" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="27"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K80" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J80,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J80,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L80" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C80,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C80,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M80" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>x</v>
       </c>
       <c r="N80" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>80</v>
       </c>
       <c r="O80" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="P80" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="Q80" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="B81" t="s">
@@ -6444,48 +6454,48 @@
         <v>13</v>
       </c>
       <c r="F81" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>45079</v>
       </c>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
       <c r="J81" s="2" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="27"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K81" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J81,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J81,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L81" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C81,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C81,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M81" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>x</v>
       </c>
       <c r="N81" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>81</v>
       </c>
       <c r="O81" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="P81" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="Q81" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="B82" t="s">
@@ -6501,48 +6511,48 @@
         <v>13</v>
       </c>
       <c r="F82" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>45079</v>
       </c>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
       <c r="J82" s="2" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="27"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K82" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J82,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J82,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L82" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C82,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C82,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M82" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>x</v>
       </c>
       <c r="N82" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>82</v>
       </c>
       <c r="O82" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="P82" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="Q82" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="B83" t="s">
@@ -6558,48 +6568,48 @@
         <v>13</v>
       </c>
       <c r="F83" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>45079</v>
       </c>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
       <c r="J83" s="2" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="27"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K83" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J83,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J83,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L83" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C83,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C83,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M83" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>x</v>
       </c>
       <c r="N83" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>83</v>
       </c>
       <c r="O83" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="P83" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="Q83" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="B84" t="s">
@@ -6615,48 +6625,48 @@
         <v>13</v>
       </c>
       <c r="F84" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>45079</v>
       </c>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
       <c r="J84" s="2" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="27"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K84" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J84,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J84,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L84" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C84,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C84,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M84" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>x</v>
       </c>
       <c r="N84" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>84</v>
       </c>
       <c r="O84" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="P84" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="Q84" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="B85" t="s">
@@ -6672,48 +6682,48 @@
         <v>13</v>
       </c>
       <c r="F85" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>45079</v>
       </c>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
       <c r="J85" s="2" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="27"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K85" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J85,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J85,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L85" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C85,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C85,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M85" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>x</v>
       </c>
       <c r="N85" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>85</v>
       </c>
       <c r="O85" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="P85" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="Q85" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="B86" t="s">
@@ -6729,48 +6739,48 @@
         <v>13</v>
       </c>
       <c r="F86" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>45079</v>
       </c>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
       <c r="J86" s="2" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="27"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K86" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J86,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J86,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L86" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C86,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C86,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M86" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>x</v>
       </c>
       <c r="N86" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>86</v>
       </c>
       <c r="O86" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="P86" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="Q86" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="B87" t="s">
@@ -6786,48 +6796,48 @@
         <v>13</v>
       </c>
       <c r="F87" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>45079</v>
       </c>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
       <c r="J87" s="2" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="27"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K87" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J87,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J87,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L87" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C87,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C87,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M87" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>x</v>
       </c>
       <c r="N87" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>87</v>
       </c>
       <c r="O87" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="P87" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="Q87" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="B88" t="s">
@@ -6843,48 +6853,48 @@
         <v>13</v>
       </c>
       <c r="F88" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>45079</v>
       </c>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
       <c r="J88" s="2" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="27"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K88" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J88,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J88,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L88" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C88,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C88,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M88" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>x</v>
       </c>
       <c r="N88" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>88</v>
       </c>
       <c r="O88" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="P88" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="Q88" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="B89" t="s">
@@ -6900,48 +6910,48 @@
         <v>13</v>
       </c>
       <c r="F89" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>45079</v>
       </c>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
       <c r="J89" s="2" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="27"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K89" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J89,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J89,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L89" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C89,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C89,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M89" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>x</v>
       </c>
       <c r="N89" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>89</v>
       </c>
       <c r="O89" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="P89" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="Q89" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="B90" t="s">
@@ -6957,48 +6967,48 @@
         <v>13</v>
       </c>
       <c r="F90" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>45079</v>
       </c>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
       <c r="J90" s="2" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="27"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K90" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J90,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J90,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L90" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C90,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C90,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M90" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>x</v>
       </c>
       <c r="N90" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>90</v>
       </c>
       <c r="O90" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="P90" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="Q90" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="B91" t="s">
@@ -7014,48 +7024,48 @@
         <v>13</v>
       </c>
       <c r="F91" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>45079</v>
       </c>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
       <c r="J91" s="2" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="27"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K91" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J91,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J91,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L91" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C91,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C91,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M91" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>x</v>
       </c>
       <c r="N91" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>91</v>
       </c>
       <c r="O91" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="P91" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="Q91" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="B92" t="s">
@@ -7071,48 +7081,48 @@
         <v>13</v>
       </c>
       <c r="F92" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>45079</v>
       </c>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
       <c r="J92" s="2" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="27"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K92" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J92,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J92,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L92" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C92,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C92,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M92" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>x</v>
       </c>
       <c r="N92" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>92</v>
       </c>
       <c r="O92" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="P92" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="Q92" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="B93" t="s">
@@ -7128,48 +7138,48 @@
         <v>13</v>
       </c>
       <c r="F93" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>45079</v>
       </c>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
       <c r="J93" s="2" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="27"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K93" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J93,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J93,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L93" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C93,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C93,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M93" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>x</v>
       </c>
       <c r="N93" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>93</v>
       </c>
       <c r="O93" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="P93" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="Q93" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="B94" t="s">
@@ -7185,48 +7195,48 @@
         <v>13</v>
       </c>
       <c r="F94" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>45079</v>
       </c>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
       <c r="J94" s="2" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="27"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K94" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J94,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J94,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L94" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C94,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C94,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M94" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>x</v>
       </c>
       <c r="N94" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>94</v>
       </c>
       <c r="O94" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="P94" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="Q94" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="B95" t="s">
@@ -7242,48 +7252,48 @@
         <v>13</v>
       </c>
       <c r="F95" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>45079</v>
       </c>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
       <c r="J95" s="2" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="27"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K95" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J95,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J95,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L95" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C95,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C95,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M95" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>x</v>
       </c>
       <c r="N95" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>95</v>
       </c>
       <c r="O95" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="P95" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="Q95" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="B96" t="s">
@@ -7299,48 +7309,48 @@
         <v>13</v>
       </c>
       <c r="F96" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>45079</v>
       </c>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
       <c r="J96" s="2" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="27"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K96" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J96,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J96,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L96" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C96,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C96,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M96" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>x</v>
       </c>
       <c r="N96" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>96</v>
       </c>
       <c r="O96" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="P96" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="Q96" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="B97" t="s">
@@ -7356,48 +7366,48 @@
         <v>13</v>
       </c>
       <c r="F97" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>45079</v>
       </c>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
       <c r="J97" s="2" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="27"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K97" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J97,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J97,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L97" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C97,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C97,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M97" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>x</v>
       </c>
       <c r="N97" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>97</v>
       </c>
       <c r="O97" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="P97" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="Q97" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="B98" t="s">
@@ -7413,48 +7423,48 @@
         <v>13</v>
       </c>
       <c r="F98" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>45079</v>
       </c>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
       <c r="J98" s="2" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="27"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K98" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J98,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J98,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L98" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C98,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C98,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M98" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>x</v>
       </c>
       <c r="N98" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>98</v>
       </c>
       <c r="O98" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="P98" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="Q98" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="B99" t="s">
@@ -7470,48 +7480,48 @@
         <v>13</v>
       </c>
       <c r="F99" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>45079</v>
       </c>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
       <c r="J99" s="2" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="27"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K99" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J99,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J99,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L99" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C99,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C99,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M99" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>x</v>
       </c>
       <c r="N99" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>99</v>
       </c>
       <c r="O99" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="P99" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="Q99" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="B100" t="s">
@@ -7527,48 +7537,48 @@
         <v>13</v>
       </c>
       <c r="F100" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>45079</v>
       </c>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
       <c r="J100" s="2" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="27"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K100" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J100,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J100,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L100" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C100,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C100,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M100" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>x</v>
       </c>
       <c r="N100" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>100</v>
       </c>
       <c r="O100" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="P100" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="Q100" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="B101" t="s">
@@ -7584,42 +7594,42 @@
         <v>13</v>
       </c>
       <c r="F101" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>45078</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>45079</v>
       </c>
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
       <c r="J101" s="2" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v>0 - ART - 20230601 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="27"/>
+        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
       </c>
       <c r="K101" s="5" t="str">
-        <f ca="1">IFERROR(VLOOKUP(J101,[2]Control!$A:$C,3,0),"")</f>
+        <f ca="1">IFERROR(VLOOKUP(J101,[1]Control!$A:$C,3,0),"")</f>
         <v/>
       </c>
       <c r="L101" s="4" t="str">
-        <f>IFERROR(VLOOKUP(C101,[1]Hoja1!$J:$L,3,0),"")</f>
+        <f>IFERROR(VLOOKUP(C101,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
       <c r="M101" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>x</v>
       </c>
       <c r="N101" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>101</v>
       </c>
       <c r="O101" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="P101" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="Q101" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
     </row>

--- a/Listado ART.xlsx
+++ b/Listado ART.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyecto Uipath\Descarga_Alicuota_ART\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F73693E-103B-403D-9EA0-E93EDF10EA95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797CEF9E-712E-41C1-AFFA-08FBA02E5C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1856,8 +1856,8 @@
   <dimension ref="A1:Q101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
+      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="F2" s="3">
         <f ca="1">TODAY()</f>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -1955,8 +1955,8 @@
         <v>18</v>
       </c>
       <c r="J2" s="2" t="str">
-        <f ca="1">CONCATENATE(TEXT(A2,"0")," - ","ART - ",TEXT(F2,"AAAAMMDD")," - ",SUBSTITUTE(D2,"-","")," - ",B2)</f>
-        <v>0 - ART - 20230602 - 20000000000 - Cliente</v>
+        <f ca="1">CONCATENATE(TEXT(A2,"0")," - ","ART - ",YEAR(F2)&amp;TEXT(MONTH(F2),"00")&amp;TEXT(DAY(F2),"00")," - ",SUBSTITUTE(D2,"-","")," - ",B2)</f>
+        <v>0 - ART - 20230702 - 20000000000 - Cliente</v>
       </c>
       <c r="K2" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J2,[1]Control!$A:$C,3,0),"")</f>
@@ -2007,7 +2007,7 @@
       </c>
       <c r="F3" s="3">
         <f t="shared" ref="F3:F66" ca="1" si="6">TODAY()</f>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -2015,8 +2015,8 @@
         <v>19</v>
       </c>
       <c r="J3" s="2" t="str">
-        <f t="shared" ref="J3:J66" ca="1" si="7">CONCATENATE(TEXT(A3,"0")," - ","ART - ",TEXT(F3,"AAAAMMDD")," - ",SUBSTITUTE(D3,"-","")," - ",B3)</f>
-        <v>0 - ART - 20230602 - 20000000000 - Cliente</v>
+        <f t="shared" ref="J3:J66" ca="1" si="7">CONCATENATE(TEXT(A3,"0")," - ","ART - ",YEAR(F3)&amp;TEXT(MONTH(F3),"00")&amp;TEXT(DAY(F3),"00")," - ",SUBSTITUTE(D3,"-","")," - ",B3)</f>
+        <v>0 - ART - 20230702 - 20000000000 - Cliente</v>
       </c>
       <c r="K3" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J3,[1]Control!$A:$C,3,0),"")</f>
@@ -2066,14 +2066,14 @@
       </c>
       <c r="F4" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K4" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J4,[1]Control!$A:$C,3,0),"")</f>
@@ -2123,14 +2123,14 @@
       </c>
       <c r="F5" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K5" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J5,[1]Control!$A:$C,3,0),"")</f>
@@ -2180,14 +2180,14 @@
       </c>
       <c r="F6" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K6" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J6,[1]Control!$A:$C,3,0),"")</f>
@@ -2237,14 +2237,14 @@
       </c>
       <c r="F7" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K7" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J7,[1]Control!$A:$C,3,0),"")</f>
@@ -2294,14 +2294,14 @@
       </c>
       <c r="F8" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K8" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J8,[1]Control!$A:$C,3,0),"")</f>
@@ -2351,14 +2351,14 @@
       </c>
       <c r="F9" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K9" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J9,[1]Control!$A:$C,3,0),"")</f>
@@ -2408,14 +2408,14 @@
       </c>
       <c r="F10" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K10" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J10,[1]Control!$A:$C,3,0),"")</f>
@@ -2465,14 +2465,14 @@
       </c>
       <c r="F11" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K11" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J11,[1]Control!$A:$C,3,0),"")</f>
@@ -2522,14 +2522,14 @@
       </c>
       <c r="F12" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K12" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J12,[1]Control!$A:$C,3,0),"")</f>
@@ -2579,14 +2579,14 @@
       </c>
       <c r="F13" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K13" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J13,[1]Control!$A:$C,3,0),"")</f>
@@ -2636,14 +2636,14 @@
       </c>
       <c r="F14" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K14" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J14,[1]Control!$A:$C,3,0),"")</f>
@@ -2693,14 +2693,14 @@
       </c>
       <c r="F15" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K15" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J15,[1]Control!$A:$C,3,0),"")</f>
@@ -2750,14 +2750,14 @@
       </c>
       <c r="F16" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K16" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J16,[1]Control!$A:$C,3,0),"")</f>
@@ -2807,14 +2807,14 @@
       </c>
       <c r="F17" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K17" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J17,[1]Control!$A:$C,3,0),"")</f>
@@ -2864,14 +2864,14 @@
       </c>
       <c r="F18" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K18" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J18,[1]Control!$A:$C,3,0),"")</f>
@@ -2921,14 +2921,14 @@
       </c>
       <c r="F19" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K19" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J19,[1]Control!$A:$C,3,0),"")</f>
@@ -2978,14 +2978,14 @@
       </c>
       <c r="F20" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K20" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J20,[1]Control!$A:$C,3,0),"")</f>
@@ -3035,14 +3035,14 @@
       </c>
       <c r="F21" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K21" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J21,[1]Control!$A:$C,3,0),"")</f>
@@ -3092,14 +3092,14 @@
       </c>
       <c r="F22" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K22" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J22,[1]Control!$A:$C,3,0),"")</f>
@@ -3149,14 +3149,14 @@
       </c>
       <c r="F23" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K23" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J23,[1]Control!$A:$C,3,0),"")</f>
@@ -3206,14 +3206,14 @@
       </c>
       <c r="F24" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K24" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J24,[1]Control!$A:$C,3,0),"")</f>
@@ -3263,14 +3263,14 @@
       </c>
       <c r="F25" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K25" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J25,[1]Control!$A:$C,3,0),"")</f>
@@ -3320,14 +3320,14 @@
       </c>
       <c r="F26" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K26" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J26,[1]Control!$A:$C,3,0),"")</f>
@@ -3377,14 +3377,14 @@
       </c>
       <c r="F27" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K27" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J27,[1]Control!$A:$C,3,0),"")</f>
@@ -3434,14 +3434,14 @@
       </c>
       <c r="F28" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K28" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J28,[1]Control!$A:$C,3,0),"")</f>
@@ -3491,14 +3491,14 @@
       </c>
       <c r="F29" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K29" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J29,[1]Control!$A:$C,3,0),"")</f>
@@ -3548,14 +3548,14 @@
       </c>
       <c r="F30" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K30" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J30,[1]Control!$A:$C,3,0),"")</f>
@@ -3605,14 +3605,14 @@
       </c>
       <c r="F31" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K31" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J31,[1]Control!$A:$C,3,0),"")</f>
@@ -3662,14 +3662,14 @@
       </c>
       <c r="F32" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K32" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J32,[1]Control!$A:$C,3,0),"")</f>
@@ -3719,14 +3719,14 @@
       </c>
       <c r="F33" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K33" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J33,[1]Control!$A:$C,3,0),"")</f>
@@ -3776,14 +3776,14 @@
       </c>
       <c r="F34" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K34" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J34,[1]Control!$A:$C,3,0),"")</f>
@@ -3833,14 +3833,14 @@
       </c>
       <c r="F35" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K35" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J35,[1]Control!$A:$C,3,0),"")</f>
@@ -3890,14 +3890,14 @@
       </c>
       <c r="F36" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K36" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J36,[1]Control!$A:$C,3,0),"")</f>
@@ -3947,14 +3947,14 @@
       </c>
       <c r="F37" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="J37" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K37" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J37,[1]Control!$A:$C,3,0),"")</f>
@@ -4004,14 +4004,14 @@
       </c>
       <c r="F38" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K38" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J38,[1]Control!$A:$C,3,0),"")</f>
@@ -4061,14 +4061,14 @@
       </c>
       <c r="F39" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K39" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J39,[1]Control!$A:$C,3,0),"")</f>
@@ -4118,14 +4118,14 @@
       </c>
       <c r="F40" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
       <c r="J40" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K40" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J40,[1]Control!$A:$C,3,0),"")</f>
@@ -4175,14 +4175,14 @@
       </c>
       <c r="F41" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K41" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J41,[1]Control!$A:$C,3,0),"")</f>
@@ -4232,14 +4232,14 @@
       </c>
       <c r="F42" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K42" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J42,[1]Control!$A:$C,3,0),"")</f>
@@ -4289,14 +4289,14 @@
       </c>
       <c r="F43" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K43" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J43,[1]Control!$A:$C,3,0),"")</f>
@@ -4346,14 +4346,14 @@
       </c>
       <c r="F44" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
       <c r="J44" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K44" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J44,[1]Control!$A:$C,3,0),"")</f>
@@ -4403,14 +4403,14 @@
       </c>
       <c r="F45" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K45" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J45,[1]Control!$A:$C,3,0),"")</f>
@@ -4460,14 +4460,14 @@
       </c>
       <c r="F46" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K46" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J46,[1]Control!$A:$C,3,0),"")</f>
@@ -4517,14 +4517,14 @@
       </c>
       <c r="F47" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K47" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J47,[1]Control!$A:$C,3,0),"")</f>
@@ -4574,14 +4574,14 @@
       </c>
       <c r="F48" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K48" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J48,[1]Control!$A:$C,3,0),"")</f>
@@ -4631,14 +4631,14 @@
       </c>
       <c r="F49" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
       <c r="J49" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K49" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J49,[1]Control!$A:$C,3,0),"")</f>
@@ -4688,14 +4688,14 @@
       </c>
       <c r="F50" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
       <c r="J50" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K50" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J50,[1]Control!$A:$C,3,0),"")</f>
@@ -4745,14 +4745,14 @@
       </c>
       <c r="F51" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
       <c r="J51" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K51" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J51,[1]Control!$A:$C,3,0),"")</f>
@@ -4802,14 +4802,14 @@
       </c>
       <c r="F52" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
       <c r="J52" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K52" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J52,[1]Control!$A:$C,3,0),"")</f>
@@ -4859,14 +4859,14 @@
       </c>
       <c r="F53" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K53" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J53,[1]Control!$A:$C,3,0),"")</f>
@@ -4916,14 +4916,14 @@
       </c>
       <c r="F54" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K54" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J54,[1]Control!$A:$C,3,0),"")</f>
@@ -4973,14 +4973,14 @@
       </c>
       <c r="F55" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
       <c r="J55" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K55" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J55,[1]Control!$A:$C,3,0),"")</f>
@@ -5030,14 +5030,14 @@
       </c>
       <c r="F56" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="J56" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K56" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J56,[1]Control!$A:$C,3,0),"")</f>
@@ -5087,14 +5087,14 @@
       </c>
       <c r="F57" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
       <c r="J57" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K57" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J57,[1]Control!$A:$C,3,0),"")</f>
@@ -5144,14 +5144,14 @@
       </c>
       <c r="F58" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
       <c r="J58" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K58" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J58,[1]Control!$A:$C,3,0),"")</f>
@@ -5201,14 +5201,14 @@
       </c>
       <c r="F59" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K59" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J59,[1]Control!$A:$C,3,0),"")</f>
@@ -5258,14 +5258,14 @@
       </c>
       <c r="F60" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
       <c r="J60" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K60" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J60,[1]Control!$A:$C,3,0),"")</f>
@@ -5315,14 +5315,14 @@
       </c>
       <c r="F61" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
       <c r="J61" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K61" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J61,[1]Control!$A:$C,3,0),"")</f>
@@ -5372,14 +5372,14 @@
       </c>
       <c r="F62" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
       <c r="J62" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K62" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J62,[1]Control!$A:$C,3,0),"")</f>
@@ -5429,14 +5429,14 @@
       </c>
       <c r="F63" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
       <c r="J63" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K63" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J63,[1]Control!$A:$C,3,0),"")</f>
@@ -5486,14 +5486,14 @@
       </c>
       <c r="F64" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
       <c r="J64" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K64" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J64,[1]Control!$A:$C,3,0),"")</f>
@@ -5543,14 +5543,14 @@
       </c>
       <c r="F65" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
       <c r="J65" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K65" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J65,[1]Control!$A:$C,3,0),"")</f>
@@ -5600,14 +5600,14 @@
       </c>
       <c r="F66" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
       <c r="J66" s="2" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K66" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J66,[1]Control!$A:$C,3,0),"")</f>
@@ -5618,7 +5618,7 @@
         <v/>
       </c>
       <c r="M66" s="5" t="str">
-        <f t="shared" ref="M66:M97" si="14">IF(EXACT(L66,E66),"ü","x")</f>
+        <f t="shared" ref="M66:M71" si="14">IF(EXACT(L66,E66),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="N66" s="4">
@@ -5657,14 +5657,14 @@
       </c>
       <c r="F67" s="3">
         <f t="shared" ref="F67:F101" ca="1" si="17">TODAY()</f>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
       <c r="J67" s="2" t="str">
-        <f t="shared" ref="J67:J69" ca="1" si="18">CONCATENATE(TEXT(A67,"0")," - ","ART - ",TEXT(F67,"AAAAMMDD")," - ",SUBSTITUTE(D67,"-","")," - ",B67)</f>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <f t="shared" ref="J67:J101" ca="1" si="18">CONCATENATE(TEXT(A67,"0")," - ","ART - ",YEAR(F67)&amp;TEXT(MONTH(F67),"00")&amp;TEXT(DAY(F67),"00")," - ",SUBSTITUTE(D67,"-","")," - ",B67)</f>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K67" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J67,[1]Control!$A:$C,3,0),"")</f>
@@ -5714,14 +5714,14 @@
       </c>
       <c r="F68" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
       <c r="J68" s="2" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K68" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J68,[1]Control!$A:$C,3,0),"")</f>
@@ -5771,14 +5771,14 @@
       </c>
       <c r="F69" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
       <c r="J69" s="2" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K69" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J69,[1]Control!$A:$C,3,0),"")</f>
@@ -5828,14 +5828,14 @@
       </c>
       <c r="F70" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
       <c r="J70" s="2" t="str">
-        <f t="shared" ref="J70:J71" ca="1" si="22">CONCATENATE(TEXT(A70,"0")," - ","ART - ",TEXT(F70,"AAAAMMDD")," - ",SUBSTITUTE(D70,"-","")," - ",B70)</f>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K70" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J70,[1]Control!$A:$C,3,0),"")</f>
@@ -5854,15 +5854,15 @@
         <v>70</v>
       </c>
       <c r="O70" s="4">
-        <f t="shared" ref="O70:O71" si="23">IF(C70=C69,1,0)</f>
+        <f t="shared" ref="O70:O71" si="22">IF(C70=C69,1,0)</f>
         <v>1</v>
       </c>
       <c r="P70" s="4">
-        <f t="shared" ref="P70:P71" si="24">IF(C70=C71,1,0)</f>
+        <f t="shared" ref="P70:P71" si="23">IF(C70=C71,1,0)</f>
         <v>1</v>
       </c>
       <c r="Q70" s="4">
-        <f t="shared" ref="Q70:Q71" si="25">SUM(O70:P70)</f>
+        <f t="shared" ref="Q70:Q71" si="24">SUM(O70:P70)</f>
         <v>2</v>
       </c>
     </row>
@@ -5885,14 +5885,14 @@
       </c>
       <c r="F71" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
       <c r="J71" s="2" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K71" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J71,[1]Control!$A:$C,3,0),"")</f>
@@ -5911,21 +5911,21 @@
         <v>71</v>
       </c>
       <c r="O71" s="4">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="P71" s="4">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="P71" s="4">
+      <c r="Q71" s="4">
         <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="Q71" s="4">
-        <f t="shared" si="25"/>
         <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="str">
-        <f t="shared" ref="A72:A101" si="26">RIGHT(D72,1)</f>
+        <f t="shared" ref="A72:A101" si="25">RIGHT(D72,1)</f>
         <v>0</v>
       </c>
       <c r="B72" t="s">
@@ -5942,14 +5942,14 @@
       </c>
       <c r="F72" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
       <c r="J72" s="2" t="str">
-        <f t="shared" ref="J72:J101" ca="1" si="27">CONCATENATE(TEXT(A72,"0")," - ","ART - ",TEXT(F72,"AAAAMMDD")," - ",SUBSTITUTE(D72,"-","")," - ",B72)</f>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K72" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J72,[1]Control!$A:$C,3,0),"")</f>
@@ -5960,29 +5960,29 @@
         <v/>
       </c>
       <c r="M72" s="5" t="str">
-        <f t="shared" ref="M72:M101" si="28">IF(EXACT(L72,E72),"ü","x")</f>
+        <f t="shared" ref="M72:M101" si="26">IF(EXACT(L72,E72),"ü","x")</f>
         <v>x</v>
       </c>
       <c r="N72" s="4">
-        <f t="shared" ref="N72:N101" si="29">ROW(A72)</f>
+        <f t="shared" ref="N72:N101" si="27">ROW(A72)</f>
         <v>72</v>
       </c>
       <c r="O72" s="4">
-        <f t="shared" ref="O72:O101" si="30">IF(C72=C71,1,0)</f>
+        <f t="shared" ref="O72:O101" si="28">IF(C72=C71,1,0)</f>
         <v>1</v>
       </c>
       <c r="P72" s="4">
-        <f t="shared" ref="P72:P101" si="31">IF(C72=C73,1,0)</f>
+        <f t="shared" ref="P72:P101" si="29">IF(C72=C73,1,0)</f>
         <v>1</v>
       </c>
       <c r="Q72" s="4">
-        <f t="shared" ref="Q72:Q101" si="32">SUM(O72:P72)</f>
+        <f t="shared" ref="Q72:Q101" si="30">SUM(O72:P72)</f>
         <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="B73" t="s">
@@ -5999,14 +5999,14 @@
       </c>
       <c r="F73" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
       <c r="J73" s="2" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K73" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J73,[1]Control!$A:$C,3,0),"")</f>
@@ -6017,29 +6017,29 @@
         <v/>
       </c>
       <c r="M73" s="5" t="str">
+        <f t="shared" si="26"/>
+        <v>x</v>
+      </c>
+      <c r="N73" s="4">
+        <f t="shared" si="27"/>
+        <v>73</v>
+      </c>
+      <c r="O73" s="4">
         <f t="shared" si="28"/>
-        <v>x</v>
-      </c>
-      <c r="N73" s="4">
+        <v>1</v>
+      </c>
+      <c r="P73" s="4">
         <f t="shared" si="29"/>
-        <v>73</v>
-      </c>
-      <c r="O73" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q73" s="4">
         <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="P73" s="4">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="Q73" s="4">
-        <f t="shared" si="32"/>
         <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="B74" t="s">
@@ -6056,14 +6056,14 @@
       </c>
       <c r="F74" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
       <c r="J74" s="2" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K74" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J74,[1]Control!$A:$C,3,0),"")</f>
@@ -6074,29 +6074,29 @@
         <v/>
       </c>
       <c r="M74" s="5" t="str">
+        <f t="shared" si="26"/>
+        <v>x</v>
+      </c>
+      <c r="N74" s="4">
+        <f t="shared" si="27"/>
+        <v>74</v>
+      </c>
+      <c r="O74" s="4">
         <f t="shared" si="28"/>
-        <v>x</v>
-      </c>
-      <c r="N74" s="4">
+        <v>1</v>
+      </c>
+      <c r="P74" s="4">
         <f t="shared" si="29"/>
-        <v>74</v>
-      </c>
-      <c r="O74" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q74" s="4">
         <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="P74" s="4">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="Q74" s="4">
-        <f t="shared" si="32"/>
         <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="B75" t="s">
@@ -6113,14 +6113,14 @@
       </c>
       <c r="F75" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
       <c r="J75" s="2" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K75" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J75,[1]Control!$A:$C,3,0),"")</f>
@@ -6131,29 +6131,29 @@
         <v/>
       </c>
       <c r="M75" s="5" t="str">
+        <f t="shared" si="26"/>
+        <v>x</v>
+      </c>
+      <c r="N75" s="4">
+        <f t="shared" si="27"/>
+        <v>75</v>
+      </c>
+      <c r="O75" s="4">
         <f t="shared" si="28"/>
-        <v>x</v>
-      </c>
-      <c r="N75" s="4">
+        <v>1</v>
+      </c>
+      <c r="P75" s="4">
         <f t="shared" si="29"/>
-        <v>75</v>
-      </c>
-      <c r="O75" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q75" s="4">
         <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="P75" s="4">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="Q75" s="4">
-        <f t="shared" si="32"/>
         <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="B76" t="s">
@@ -6170,14 +6170,14 @@
       </c>
       <c r="F76" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
       <c r="J76" s="2" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K76" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J76,[1]Control!$A:$C,3,0),"")</f>
@@ -6188,29 +6188,29 @@
         <v/>
       </c>
       <c r="M76" s="5" t="str">
+        <f t="shared" si="26"/>
+        <v>x</v>
+      </c>
+      <c r="N76" s="4">
+        <f t="shared" si="27"/>
+        <v>76</v>
+      </c>
+      <c r="O76" s="4">
         <f t="shared" si="28"/>
-        <v>x</v>
-      </c>
-      <c r="N76" s="4">
+        <v>1</v>
+      </c>
+      <c r="P76" s="4">
         <f t="shared" si="29"/>
-        <v>76</v>
-      </c>
-      <c r="O76" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q76" s="4">
         <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="P76" s="4">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="Q76" s="4">
-        <f t="shared" si="32"/>
         <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="B77" t="s">
@@ -6227,14 +6227,14 @@
       </c>
       <c r="F77" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
       <c r="J77" s="2" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K77" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J77,[1]Control!$A:$C,3,0),"")</f>
@@ -6245,29 +6245,29 @@
         <v/>
       </c>
       <c r="M77" s="5" t="str">
+        <f t="shared" si="26"/>
+        <v>x</v>
+      </c>
+      <c r="N77" s="4">
+        <f t="shared" si="27"/>
+        <v>77</v>
+      </c>
+      <c r="O77" s="4">
         <f t="shared" si="28"/>
-        <v>x</v>
-      </c>
-      <c r="N77" s="4">
+        <v>1</v>
+      </c>
+      <c r="P77" s="4">
         <f t="shared" si="29"/>
-        <v>77</v>
-      </c>
-      <c r="O77" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q77" s="4">
         <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="P77" s="4">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="Q77" s="4">
-        <f t="shared" si="32"/>
         <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="B78" t="s">
@@ -6284,14 +6284,14 @@
       </c>
       <c r="F78" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
       <c r="J78" s="2" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K78" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J78,[1]Control!$A:$C,3,0),"")</f>
@@ -6302,29 +6302,29 @@
         <v/>
       </c>
       <c r="M78" s="5" t="str">
+        <f t="shared" si="26"/>
+        <v>x</v>
+      </c>
+      <c r="N78" s="4">
+        <f t="shared" si="27"/>
+        <v>78</v>
+      </c>
+      <c r="O78" s="4">
         <f t="shared" si="28"/>
-        <v>x</v>
-      </c>
-      <c r="N78" s="4">
+        <v>1</v>
+      </c>
+      <c r="P78" s="4">
         <f t="shared" si="29"/>
-        <v>78</v>
-      </c>
-      <c r="O78" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q78" s="4">
         <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="P78" s="4">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="Q78" s="4">
-        <f t="shared" si="32"/>
         <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="B79" t="s">
@@ -6341,14 +6341,14 @@
       </c>
       <c r="F79" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
       <c r="J79" s="2" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K79" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J79,[1]Control!$A:$C,3,0),"")</f>
@@ -6359,29 +6359,29 @@
         <v/>
       </c>
       <c r="M79" s="5" t="str">
+        <f t="shared" si="26"/>
+        <v>x</v>
+      </c>
+      <c r="N79" s="4">
+        <f t="shared" si="27"/>
+        <v>79</v>
+      </c>
+      <c r="O79" s="4">
         <f t="shared" si="28"/>
-        <v>x</v>
-      </c>
-      <c r="N79" s="4">
+        <v>1</v>
+      </c>
+      <c r="P79" s="4">
         <f t="shared" si="29"/>
-        <v>79</v>
-      </c>
-      <c r="O79" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q79" s="4">
         <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="P79" s="4">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="Q79" s="4">
-        <f t="shared" si="32"/>
         <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="B80" t="s">
@@ -6398,14 +6398,14 @@
       </c>
       <c r="F80" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
       <c r="J80" s="2" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K80" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J80,[1]Control!$A:$C,3,0),"")</f>
@@ -6416,29 +6416,29 @@
         <v/>
       </c>
       <c r="M80" s="5" t="str">
+        <f t="shared" si="26"/>
+        <v>x</v>
+      </c>
+      <c r="N80" s="4">
+        <f t="shared" si="27"/>
+        <v>80</v>
+      </c>
+      <c r="O80" s="4">
         <f t="shared" si="28"/>
-        <v>x</v>
-      </c>
-      <c r="N80" s="4">
+        <v>1</v>
+      </c>
+      <c r="P80" s="4">
         <f t="shared" si="29"/>
-        <v>80</v>
-      </c>
-      <c r="O80" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q80" s="4">
         <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="P80" s="4">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="Q80" s="4">
-        <f t="shared" si="32"/>
         <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="B81" t="s">
@@ -6455,14 +6455,14 @@
       </c>
       <c r="F81" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
       <c r="J81" s="2" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K81" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J81,[1]Control!$A:$C,3,0),"")</f>
@@ -6473,29 +6473,29 @@
         <v/>
       </c>
       <c r="M81" s="5" t="str">
+        <f t="shared" si="26"/>
+        <v>x</v>
+      </c>
+      <c r="N81" s="4">
+        <f t="shared" si="27"/>
+        <v>81</v>
+      </c>
+      <c r="O81" s="4">
         <f t="shared" si="28"/>
-        <v>x</v>
-      </c>
-      <c r="N81" s="4">
+        <v>1</v>
+      </c>
+      <c r="P81" s="4">
         <f t="shared" si="29"/>
-        <v>81</v>
-      </c>
-      <c r="O81" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q81" s="4">
         <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="P81" s="4">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="Q81" s="4">
-        <f t="shared" si="32"/>
         <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="B82" t="s">
@@ -6512,14 +6512,14 @@
       </c>
       <c r="F82" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
       <c r="J82" s="2" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K82" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J82,[1]Control!$A:$C,3,0),"")</f>
@@ -6530,29 +6530,29 @@
         <v/>
       </c>
       <c r="M82" s="5" t="str">
+        <f t="shared" si="26"/>
+        <v>x</v>
+      </c>
+      <c r="N82" s="4">
+        <f t="shared" si="27"/>
+        <v>82</v>
+      </c>
+      <c r="O82" s="4">
         <f t="shared" si="28"/>
-        <v>x</v>
-      </c>
-      <c r="N82" s="4">
+        <v>1</v>
+      </c>
+      <c r="P82" s="4">
         <f t="shared" si="29"/>
-        <v>82</v>
-      </c>
-      <c r="O82" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q82" s="4">
         <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="P82" s="4">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="Q82" s="4">
-        <f t="shared" si="32"/>
         <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="B83" t="s">
@@ -6569,14 +6569,14 @@
       </c>
       <c r="F83" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
       <c r="J83" s="2" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K83" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J83,[1]Control!$A:$C,3,0),"")</f>
@@ -6587,29 +6587,29 @@
         <v/>
       </c>
       <c r="M83" s="5" t="str">
+        <f t="shared" si="26"/>
+        <v>x</v>
+      </c>
+      <c r="N83" s="4">
+        <f t="shared" si="27"/>
+        <v>83</v>
+      </c>
+      <c r="O83" s="4">
         <f t="shared" si="28"/>
-        <v>x</v>
-      </c>
-      <c r="N83" s="4">
+        <v>1</v>
+      </c>
+      <c r="P83" s="4">
         <f t="shared" si="29"/>
-        <v>83</v>
-      </c>
-      <c r="O83" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q83" s="4">
         <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="P83" s="4">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="Q83" s="4">
-        <f t="shared" si="32"/>
         <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="B84" t="s">
@@ -6626,14 +6626,14 @@
       </c>
       <c r="F84" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
       <c r="J84" s="2" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K84" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J84,[1]Control!$A:$C,3,0),"")</f>
@@ -6644,29 +6644,29 @@
         <v/>
       </c>
       <c r="M84" s="5" t="str">
+        <f t="shared" si="26"/>
+        <v>x</v>
+      </c>
+      <c r="N84" s="4">
+        <f t="shared" si="27"/>
+        <v>84</v>
+      </c>
+      <c r="O84" s="4">
         <f t="shared" si="28"/>
-        <v>x</v>
-      </c>
-      <c r="N84" s="4">
+        <v>1</v>
+      </c>
+      <c r="P84" s="4">
         <f t="shared" si="29"/>
-        <v>84</v>
-      </c>
-      <c r="O84" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q84" s="4">
         <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="P84" s="4">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="Q84" s="4">
-        <f t="shared" si="32"/>
         <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="B85" t="s">
@@ -6683,14 +6683,14 @@
       </c>
       <c r="F85" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
       <c r="J85" s="2" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K85" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J85,[1]Control!$A:$C,3,0),"")</f>
@@ -6701,29 +6701,29 @@
         <v/>
       </c>
       <c r="M85" s="5" t="str">
+        <f t="shared" si="26"/>
+        <v>x</v>
+      </c>
+      <c r="N85" s="4">
+        <f t="shared" si="27"/>
+        <v>85</v>
+      </c>
+      <c r="O85" s="4">
         <f t="shared" si="28"/>
-        <v>x</v>
-      </c>
-      <c r="N85" s="4">
+        <v>1</v>
+      </c>
+      <c r="P85" s="4">
         <f t="shared" si="29"/>
-        <v>85</v>
-      </c>
-      <c r="O85" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q85" s="4">
         <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="P85" s="4">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="Q85" s="4">
-        <f t="shared" si="32"/>
         <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="B86" t="s">
@@ -6740,14 +6740,14 @@
       </c>
       <c r="F86" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
       <c r="J86" s="2" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K86" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J86,[1]Control!$A:$C,3,0),"")</f>
@@ -6758,29 +6758,29 @@
         <v/>
       </c>
       <c r="M86" s="5" t="str">
+        <f t="shared" si="26"/>
+        <v>x</v>
+      </c>
+      <c r="N86" s="4">
+        <f t="shared" si="27"/>
+        <v>86</v>
+      </c>
+      <c r="O86" s="4">
         <f t="shared" si="28"/>
-        <v>x</v>
-      </c>
-      <c r="N86" s="4">
+        <v>1</v>
+      </c>
+      <c r="P86" s="4">
         <f t="shared" si="29"/>
-        <v>86</v>
-      </c>
-      <c r="O86" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q86" s="4">
         <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="P86" s="4">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="Q86" s="4">
-        <f t="shared" si="32"/>
         <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="B87" t="s">
@@ -6797,14 +6797,14 @@
       </c>
       <c r="F87" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
       <c r="J87" s="2" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K87" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J87,[1]Control!$A:$C,3,0),"")</f>
@@ -6815,29 +6815,29 @@
         <v/>
       </c>
       <c r="M87" s="5" t="str">
+        <f t="shared" si="26"/>
+        <v>x</v>
+      </c>
+      <c r="N87" s="4">
+        <f t="shared" si="27"/>
+        <v>87</v>
+      </c>
+      <c r="O87" s="4">
         <f t="shared" si="28"/>
-        <v>x</v>
-      </c>
-      <c r="N87" s="4">
+        <v>1</v>
+      </c>
+      <c r="P87" s="4">
         <f t="shared" si="29"/>
-        <v>87</v>
-      </c>
-      <c r="O87" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q87" s="4">
         <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="P87" s="4">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="Q87" s="4">
-        <f t="shared" si="32"/>
         <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="B88" t="s">
@@ -6854,14 +6854,14 @@
       </c>
       <c r="F88" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
       <c r="J88" s="2" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K88" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J88,[1]Control!$A:$C,3,0),"")</f>
@@ -6872,29 +6872,29 @@
         <v/>
       </c>
       <c r="M88" s="5" t="str">
+        <f t="shared" si="26"/>
+        <v>x</v>
+      </c>
+      <c r="N88" s="4">
+        <f t="shared" si="27"/>
+        <v>88</v>
+      </c>
+      <c r="O88" s="4">
         <f t="shared" si="28"/>
-        <v>x</v>
-      </c>
-      <c r="N88" s="4">
+        <v>1</v>
+      </c>
+      <c r="P88" s="4">
         <f t="shared" si="29"/>
-        <v>88</v>
-      </c>
-      <c r="O88" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q88" s="4">
         <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="P88" s="4">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="Q88" s="4">
-        <f t="shared" si="32"/>
         <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="B89" t="s">
@@ -6911,14 +6911,14 @@
       </c>
       <c r="F89" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
       <c r="J89" s="2" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K89" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J89,[1]Control!$A:$C,3,0),"")</f>
@@ -6929,29 +6929,29 @@
         <v/>
       </c>
       <c r="M89" s="5" t="str">
+        <f t="shared" si="26"/>
+        <v>x</v>
+      </c>
+      <c r="N89" s="4">
+        <f t="shared" si="27"/>
+        <v>89</v>
+      </c>
+      <c r="O89" s="4">
         <f t="shared" si="28"/>
-        <v>x</v>
-      </c>
-      <c r="N89" s="4">
+        <v>1</v>
+      </c>
+      <c r="P89" s="4">
         <f t="shared" si="29"/>
-        <v>89</v>
-      </c>
-      <c r="O89" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q89" s="4">
         <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="P89" s="4">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="Q89" s="4">
-        <f t="shared" si="32"/>
         <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="B90" t="s">
@@ -6968,14 +6968,14 @@
       </c>
       <c r="F90" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
       <c r="J90" s="2" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K90" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J90,[1]Control!$A:$C,3,0),"")</f>
@@ -6986,29 +6986,29 @@
         <v/>
       </c>
       <c r="M90" s="5" t="str">
+        <f t="shared" si="26"/>
+        <v>x</v>
+      </c>
+      <c r="N90" s="4">
+        <f t="shared" si="27"/>
+        <v>90</v>
+      </c>
+      <c r="O90" s="4">
         <f t="shared" si="28"/>
-        <v>x</v>
-      </c>
-      <c r="N90" s="4">
+        <v>1</v>
+      </c>
+      <c r="P90" s="4">
         <f t="shared" si="29"/>
-        <v>90</v>
-      </c>
-      <c r="O90" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q90" s="4">
         <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="P90" s="4">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="Q90" s="4">
-        <f t="shared" si="32"/>
         <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="B91" t="s">
@@ -7025,14 +7025,14 @@
       </c>
       <c r="F91" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
       <c r="J91" s="2" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K91" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J91,[1]Control!$A:$C,3,0),"")</f>
@@ -7043,29 +7043,29 @@
         <v/>
       </c>
       <c r="M91" s="5" t="str">
+        <f t="shared" si="26"/>
+        <v>x</v>
+      </c>
+      <c r="N91" s="4">
+        <f t="shared" si="27"/>
+        <v>91</v>
+      </c>
+      <c r="O91" s="4">
         <f t="shared" si="28"/>
-        <v>x</v>
-      </c>
-      <c r="N91" s="4">
+        <v>1</v>
+      </c>
+      <c r="P91" s="4">
         <f t="shared" si="29"/>
-        <v>91</v>
-      </c>
-      <c r="O91" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q91" s="4">
         <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="P91" s="4">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="Q91" s="4">
-        <f t="shared" si="32"/>
         <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="B92" t="s">
@@ -7082,14 +7082,14 @@
       </c>
       <c r="F92" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
       <c r="J92" s="2" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K92" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J92,[1]Control!$A:$C,3,0),"")</f>
@@ -7100,29 +7100,29 @@
         <v/>
       </c>
       <c r="M92" s="5" t="str">
+        <f t="shared" si="26"/>
+        <v>x</v>
+      </c>
+      <c r="N92" s="4">
+        <f t="shared" si="27"/>
+        <v>92</v>
+      </c>
+      <c r="O92" s="4">
         <f t="shared" si="28"/>
-        <v>x</v>
-      </c>
-      <c r="N92" s="4">
+        <v>1</v>
+      </c>
+      <c r="P92" s="4">
         <f t="shared" si="29"/>
-        <v>92</v>
-      </c>
-      <c r="O92" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q92" s="4">
         <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="P92" s="4">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="Q92" s="4">
-        <f t="shared" si="32"/>
         <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="B93" t="s">
@@ -7139,14 +7139,14 @@
       </c>
       <c r="F93" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
       <c r="J93" s="2" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K93" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J93,[1]Control!$A:$C,3,0),"")</f>
@@ -7157,29 +7157,29 @@
         <v/>
       </c>
       <c r="M93" s="5" t="str">
+        <f t="shared" si="26"/>
+        <v>x</v>
+      </c>
+      <c r="N93" s="4">
+        <f t="shared" si="27"/>
+        <v>93</v>
+      </c>
+      <c r="O93" s="4">
         <f t="shared" si="28"/>
-        <v>x</v>
-      </c>
-      <c r="N93" s="4">
+        <v>1</v>
+      </c>
+      <c r="P93" s="4">
         <f t="shared" si="29"/>
-        <v>93</v>
-      </c>
-      <c r="O93" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q93" s="4">
         <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="P93" s="4">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="Q93" s="4">
-        <f t="shared" si="32"/>
         <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="B94" t="s">
@@ -7196,14 +7196,14 @@
       </c>
       <c r="F94" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
       <c r="J94" s="2" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K94" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J94,[1]Control!$A:$C,3,0),"")</f>
@@ -7214,29 +7214,29 @@
         <v/>
       </c>
       <c r="M94" s="5" t="str">
+        <f t="shared" si="26"/>
+        <v>x</v>
+      </c>
+      <c r="N94" s="4">
+        <f t="shared" si="27"/>
+        <v>94</v>
+      </c>
+      <c r="O94" s="4">
         <f t="shared" si="28"/>
-        <v>x</v>
-      </c>
-      <c r="N94" s="4">
+        <v>1</v>
+      </c>
+      <c r="P94" s="4">
         <f t="shared" si="29"/>
-        <v>94</v>
-      </c>
-      <c r="O94" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q94" s="4">
         <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="P94" s="4">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="Q94" s="4">
-        <f t="shared" si="32"/>
         <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="B95" t="s">
@@ -7253,14 +7253,14 @@
       </c>
       <c r="F95" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
       <c r="J95" s="2" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K95" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J95,[1]Control!$A:$C,3,0),"")</f>
@@ -7271,29 +7271,29 @@
         <v/>
       </c>
       <c r="M95" s="5" t="str">
+        <f t="shared" si="26"/>
+        <v>x</v>
+      </c>
+      <c r="N95" s="4">
+        <f t="shared" si="27"/>
+        <v>95</v>
+      </c>
+      <c r="O95" s="4">
         <f t="shared" si="28"/>
-        <v>x</v>
-      </c>
-      <c r="N95" s="4">
+        <v>1</v>
+      </c>
+      <c r="P95" s="4">
         <f t="shared" si="29"/>
-        <v>95</v>
-      </c>
-      <c r="O95" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q95" s="4">
         <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="P95" s="4">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="Q95" s="4">
-        <f t="shared" si="32"/>
         <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="B96" t="s">
@@ -7310,14 +7310,14 @@
       </c>
       <c r="F96" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
       <c r="J96" s="2" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K96" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J96,[1]Control!$A:$C,3,0),"")</f>
@@ -7328,29 +7328,29 @@
         <v/>
       </c>
       <c r="M96" s="5" t="str">
+        <f t="shared" si="26"/>
+        <v>x</v>
+      </c>
+      <c r="N96" s="4">
+        <f t="shared" si="27"/>
+        <v>96</v>
+      </c>
+      <c r="O96" s="4">
         <f t="shared" si="28"/>
-        <v>x</v>
-      </c>
-      <c r="N96" s="4">
+        <v>1</v>
+      </c>
+      <c r="P96" s="4">
         <f t="shared" si="29"/>
-        <v>96</v>
-      </c>
-      <c r="O96" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q96" s="4">
         <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="P96" s="4">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="Q96" s="4">
-        <f t="shared" si="32"/>
         <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="B97" t="s">
@@ -7367,14 +7367,14 @@
       </c>
       <c r="F97" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
       <c r="J97" s="2" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K97" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J97,[1]Control!$A:$C,3,0),"")</f>
@@ -7385,29 +7385,29 @@
         <v/>
       </c>
       <c r="M97" s="5" t="str">
+        <f t="shared" si="26"/>
+        <v>x</v>
+      </c>
+      <c r="N97" s="4">
+        <f t="shared" si="27"/>
+        <v>97</v>
+      </c>
+      <c r="O97" s="4">
         <f t="shared" si="28"/>
-        <v>x</v>
-      </c>
-      <c r="N97" s="4">
+        <v>1</v>
+      </c>
+      <c r="P97" s="4">
         <f t="shared" si="29"/>
-        <v>97</v>
-      </c>
-      <c r="O97" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q97" s="4">
         <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="P97" s="4">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="Q97" s="4">
-        <f t="shared" si="32"/>
         <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="B98" t="s">
@@ -7424,14 +7424,14 @@
       </c>
       <c r="F98" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
       <c r="J98" s="2" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K98" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J98,[1]Control!$A:$C,3,0),"")</f>
@@ -7442,29 +7442,29 @@
         <v/>
       </c>
       <c r="M98" s="5" t="str">
+        <f t="shared" si="26"/>
+        <v>x</v>
+      </c>
+      <c r="N98" s="4">
+        <f t="shared" si="27"/>
+        <v>98</v>
+      </c>
+      <c r="O98" s="4">
         <f t="shared" si="28"/>
-        <v>x</v>
-      </c>
-      <c r="N98" s="4">
+        <v>1</v>
+      </c>
+      <c r="P98" s="4">
         <f t="shared" si="29"/>
-        <v>98</v>
-      </c>
-      <c r="O98" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q98" s="4">
         <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="P98" s="4">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="Q98" s="4">
-        <f t="shared" si="32"/>
         <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="B99" t="s">
@@ -7481,14 +7481,14 @@
       </c>
       <c r="F99" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
       <c r="J99" s="2" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K99" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J99,[1]Control!$A:$C,3,0),"")</f>
@@ -7499,29 +7499,29 @@
         <v/>
       </c>
       <c r="M99" s="5" t="str">
+        <f t="shared" si="26"/>
+        <v>x</v>
+      </c>
+      <c r="N99" s="4">
+        <f t="shared" si="27"/>
+        <v>99</v>
+      </c>
+      <c r="O99" s="4">
         <f t="shared" si="28"/>
-        <v>x</v>
-      </c>
-      <c r="N99" s="4">
+        <v>1</v>
+      </c>
+      <c r="P99" s="4">
         <f t="shared" si="29"/>
-        <v>99</v>
-      </c>
-      <c r="O99" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q99" s="4">
         <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="P99" s="4">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="Q99" s="4">
-        <f t="shared" si="32"/>
         <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="B100" t="s">
@@ -7538,14 +7538,14 @@
       </c>
       <c r="F100" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
       <c r="J100" s="2" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K100" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J100,[1]Control!$A:$C,3,0),"")</f>
@@ -7556,29 +7556,29 @@
         <v/>
       </c>
       <c r="M100" s="5" t="str">
+        <f t="shared" si="26"/>
+        <v>x</v>
+      </c>
+      <c r="N100" s="4">
+        <f t="shared" si="27"/>
+        <v>100</v>
+      </c>
+      <c r="O100" s="4">
         <f t="shared" si="28"/>
-        <v>x</v>
-      </c>
-      <c r="N100" s="4">
+        <v>1</v>
+      </c>
+      <c r="P100" s="4">
         <f t="shared" si="29"/>
-        <v>100</v>
-      </c>
-      <c r="O100" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q100" s="4">
         <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="P100" s="4">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="Q100" s="4">
-        <f t="shared" si="32"/>
         <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="B101" t="s">
@@ -7595,14 +7595,14 @@
       </c>
       <c r="F101" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
       <c r="J101" s="2" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v>0 - ART - 20230602 - 30000000000 - Cliente</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>0 - ART - 20230702 - 30000000000 - Cliente</v>
       </c>
       <c r="K101" s="5" t="str">
         <f ca="1">IFERROR(VLOOKUP(J101,[1]Control!$A:$C,3,0),"")</f>
@@ -7613,23 +7613,23 @@
         <v/>
       </c>
       <c r="M101" s="5" t="str">
+        <f t="shared" si="26"/>
+        <v>x</v>
+      </c>
+      <c r="N101" s="4">
+        <f t="shared" si="27"/>
+        <v>101</v>
+      </c>
+      <c r="O101" s="4">
         <f t="shared" si="28"/>
-        <v>x</v>
-      </c>
-      <c r="N101" s="4">
+        <v>1</v>
+      </c>
+      <c r="P101" s="4">
         <f t="shared" si="29"/>
-        <v>101</v>
-      </c>
-      <c r="O101" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="4">
         <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="P101" s="4">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="Q101" s="4">
-        <f t="shared" si="32"/>
         <v>1</v>
       </c>
     </row>
